--- a/CascadillaHall.xlsx
+++ b/CascadillaHall.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewburgos/Desktop/BEE 4750/BEE4750FinalProject-1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E42E5235-583D-FE48-96AA-C01C662CF053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B292C19E-7026-2941-A79B-C6B5FBF59975}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3319,6 +3319,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -3348,8 +3351,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3691,8 +3695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H733"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A209" workbookViewId="0">
+      <selection activeCell="I201" sqref="I201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3741,9 +3745,8 @@
       <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" t="str" cm="1">
-        <f t="array" ref="F2">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-01-02 00:00:00</v>
+      <c r="F2" s="1">
+        <v>45293</v>
       </c>
       <c r="G2" t="str" cm="1">
         <f t="array" ref="G2">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -3770,9 +3773,8 @@
       <c r="E3" t="s">
         <v>11</v>
       </c>
-      <c r="F3" t="str" cm="1">
-        <f t="array" ref="F3">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-01-03 00:00:00</v>
+      <c r="F3" s="1">
+        <v>45294</v>
       </c>
       <c r="G3" t="str" cm="1">
         <f t="array" ref="G3">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -3796,9 +3798,8 @@
       <c r="D4" t="s">
         <v>13</v>
       </c>
-      <c r="F4" t="str" cm="1">
-        <f t="array" ref="F4">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-01-04 00:00:00</v>
+      <c r="F4" s="1">
+        <v>45295</v>
       </c>
       <c r="G4" t="str" cm="1">
         <f t="array" ref="G4">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -3825,9 +3826,8 @@
       <c r="E5" t="s">
         <v>11</v>
       </c>
-      <c r="F5" t="str" cm="1">
-        <f t="array" ref="F5">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-01-05 00:00:00</v>
+      <c r="F5" s="1">
+        <v>45296</v>
       </c>
       <c r="G5" t="str" cm="1">
         <f t="array" ref="G5">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -3851,9 +3851,8 @@
       <c r="D6" t="s">
         <v>16</v>
       </c>
-      <c r="F6" t="str" cm="1">
-        <f t="array" ref="F6">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-01-06 00:00:00</v>
+      <c r="F6" s="1">
+        <v>45297</v>
       </c>
       <c r="G6" t="str" cm="1">
         <f t="array" ref="G6">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -3880,9 +3879,8 @@
       <c r="E7" t="s">
         <v>11</v>
       </c>
-      <c r="F7" t="str" cm="1">
-        <f t="array" ref="F7">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-01-07 00:00:00</v>
+      <c r="F7" s="1">
+        <v>45298</v>
       </c>
       <c r="G7" t="str" cm="1">
         <f t="array" ref="G7">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -3906,9 +3904,8 @@
       <c r="D8" t="s">
         <v>19</v>
       </c>
-      <c r="F8" t="str" cm="1">
-        <f t="array" ref="F8">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-01-08 00:00:00</v>
+      <c r="F8" s="1">
+        <v>45299</v>
       </c>
       <c r="G8" t="str" cm="1">
         <f t="array" ref="G8">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -3935,9 +3932,8 @@
       <c r="E9" t="s">
         <v>11</v>
       </c>
-      <c r="F9" t="str" cm="1">
-        <f t="array" ref="F9">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-01-09 00:00:00</v>
+      <c r="F9" s="1">
+        <v>45300</v>
       </c>
       <c r="G9" t="str" cm="1">
         <f t="array" ref="G9">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -3961,9 +3957,8 @@
       <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="F10" t="str" cm="1">
-        <f t="array" ref="F10">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-01-10 00:00:00</v>
+      <c r="F10" s="1">
+        <v>45301</v>
       </c>
       <c r="G10" t="str" cm="1">
         <f t="array" ref="G10">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -3990,9 +3985,8 @@
       <c r="E11" t="s">
         <v>11</v>
       </c>
-      <c r="F11" t="str" cm="1">
-        <f t="array" ref="F11">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-01-11 00:00:00</v>
+      <c r="F11" s="1">
+        <v>45302</v>
       </c>
       <c r="G11" t="str" cm="1">
         <f t="array" ref="G11">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -4016,9 +4010,8 @@
       <c r="D12" t="s">
         <v>25</v>
       </c>
-      <c r="F12" t="str" cm="1">
-        <f t="array" ref="F12">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-01-12 00:00:00</v>
+      <c r="F12" s="1">
+        <v>45303</v>
       </c>
       <c r="G12" t="str" cm="1">
         <f t="array" ref="G12">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -4045,9 +4038,8 @@
       <c r="E13" t="s">
         <v>11</v>
       </c>
-      <c r="F13" t="str" cm="1">
-        <f t="array" ref="F13">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-01-13 00:00:00</v>
+      <c r="F13" s="1">
+        <v>45304</v>
       </c>
       <c r="G13" t="str" cm="1">
         <f t="array" ref="G13">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -4071,9 +4063,8 @@
       <c r="D14" t="s">
         <v>28</v>
       </c>
-      <c r="F14" t="str" cm="1">
-        <f t="array" ref="F14">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-01-14 00:00:00</v>
+      <c r="F14" s="1">
+        <v>45305</v>
       </c>
       <c r="G14" t="str" cm="1">
         <f t="array" ref="G14">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -4100,9 +4091,8 @@
       <c r="E15" t="s">
         <v>11</v>
       </c>
-      <c r="F15" t="str" cm="1">
-        <f t="array" ref="F15">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-01-15 00:00:00</v>
+      <c r="F15" s="1">
+        <v>45306</v>
       </c>
       <c r="G15" t="str" cm="1">
         <f t="array" ref="G15">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -4126,9 +4116,8 @@
       <c r="D16" t="s">
         <v>31</v>
       </c>
-      <c r="F16" t="str" cm="1">
-        <f t="array" ref="F16">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-01-16 00:00:00</v>
+      <c r="F16" s="1">
+        <v>45307</v>
       </c>
       <c r="G16" t="str" cm="1">
         <f t="array" ref="G16">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -4155,9 +4144,8 @@
       <c r="E17" t="s">
         <v>11</v>
       </c>
-      <c r="F17" t="str" cm="1">
-        <f t="array" ref="F17">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-01-17 00:00:00</v>
+      <c r="F17" s="1">
+        <v>45308</v>
       </c>
       <c r="G17" t="str" cm="1">
         <f t="array" ref="G17">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -4181,9 +4169,8 @@
       <c r="D18" t="s">
         <v>34</v>
       </c>
-      <c r="F18" t="str" cm="1">
-        <f t="array" ref="F18">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-01-18 00:00:00</v>
+      <c r="F18" s="1">
+        <v>45309</v>
       </c>
       <c r="G18" t="str" cm="1">
         <f t="array" ref="G18">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -4210,9 +4197,8 @@
       <c r="E19" t="s">
         <v>11</v>
       </c>
-      <c r="F19" t="str" cm="1">
-        <f t="array" ref="F19">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-01-19 00:00:00</v>
+      <c r="F19" s="1">
+        <v>45310</v>
       </c>
       <c r="G19" t="str" cm="1">
         <f t="array" ref="G19">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -4236,9 +4222,8 @@
       <c r="D20" t="s">
         <v>37</v>
       </c>
-      <c r="F20" t="str" cm="1">
-        <f t="array" ref="F20">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-01-20 00:00:00</v>
+      <c r="F20" s="1">
+        <v>45311</v>
       </c>
       <c r="G20" t="str" cm="1">
         <f t="array" ref="G20">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -4265,9 +4250,8 @@
       <c r="E21" t="s">
         <v>11</v>
       </c>
-      <c r="F21" t="str" cm="1">
-        <f t="array" ref="F21">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-01-21 00:00:00</v>
+      <c r="F21" s="1">
+        <v>45312</v>
       </c>
       <c r="G21" t="str" cm="1">
         <f t="array" ref="G21">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -4291,9 +4275,8 @@
       <c r="D22" t="s">
         <v>40</v>
       </c>
-      <c r="F22" t="str" cm="1">
-        <f t="array" ref="F22">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-01-22 00:00:00</v>
+      <c r="F22" s="1">
+        <v>45313</v>
       </c>
       <c r="G22" t="str" cm="1">
         <f t="array" ref="G22">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -4320,9 +4303,8 @@
       <c r="E23" t="s">
         <v>11</v>
       </c>
-      <c r="F23" t="str" cm="1">
-        <f t="array" ref="F23">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-01-23 00:00:00</v>
+      <c r="F23" s="1">
+        <v>45314</v>
       </c>
       <c r="G23" t="str" cm="1">
         <f t="array" ref="G23">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -4346,9 +4328,8 @@
       <c r="D24" t="s">
         <v>43</v>
       </c>
-      <c r="F24" t="str" cm="1">
-        <f t="array" ref="F24">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-01-24 00:00:00</v>
+      <c r="F24" s="1">
+        <v>45315</v>
       </c>
       <c r="G24" t="str" cm="1">
         <f t="array" ref="G24">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -4375,9 +4356,8 @@
       <c r="E25" t="s">
         <v>11</v>
       </c>
-      <c r="F25" t="str" cm="1">
-        <f t="array" ref="F25">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-01-25 00:00:00</v>
+      <c r="F25" s="1">
+        <v>45316</v>
       </c>
       <c r="G25" t="str" cm="1">
         <f t="array" ref="G25">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -4401,9 +4381,8 @@
       <c r="D26" t="s">
         <v>46</v>
       </c>
-      <c r="F26" t="str" cm="1">
-        <f t="array" ref="F26">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-01-26 00:00:00</v>
+      <c r="F26" s="1">
+        <v>45317</v>
       </c>
       <c r="G26" t="str" cm="1">
         <f t="array" ref="G26">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -4430,9 +4409,8 @@
       <c r="E27" t="s">
         <v>11</v>
       </c>
-      <c r="F27" t="str" cm="1">
-        <f t="array" ref="F27">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-01-27 00:00:00</v>
+      <c r="F27" s="1">
+        <v>45318</v>
       </c>
       <c r="G27" t="str" cm="1">
         <f t="array" ref="G27">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -4456,9 +4434,8 @@
       <c r="D28" t="s">
         <v>49</v>
       </c>
-      <c r="F28" t="str" cm="1">
-        <f t="array" ref="F28">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-01-28 00:00:00</v>
+      <c r="F28" s="1">
+        <v>45319</v>
       </c>
       <c r="G28" t="str" cm="1">
         <f t="array" ref="G28">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -4485,9 +4462,8 @@
       <c r="E29" t="s">
         <v>11</v>
       </c>
-      <c r="F29" t="str" cm="1">
-        <f t="array" ref="F29">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-01-29 00:00:00</v>
+      <c r="F29" s="1">
+        <v>45320</v>
       </c>
       <c r="G29" t="str" cm="1">
         <f t="array" ref="G29">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -4511,9 +4487,8 @@
       <c r="D30" t="s">
         <v>52</v>
       </c>
-      <c r="F30" t="str" cm="1">
-        <f t="array" ref="F30">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-01-30 00:00:00</v>
+      <c r="F30" s="1">
+        <v>45321</v>
       </c>
       <c r="G30" t="str" cm="1">
         <f t="array" ref="G30">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -4540,9 +4515,8 @@
       <c r="E31" t="s">
         <v>11</v>
       </c>
-      <c r="F31" t="str" cm="1">
-        <f t="array" ref="F31">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-01-31 00:00:00</v>
+      <c r="F31" s="1">
+        <v>45322</v>
       </c>
       <c r="G31" t="str" cm="1">
         <f t="array" ref="G31">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -4566,9 +4540,8 @@
       <c r="D32" t="s">
         <v>55</v>
       </c>
-      <c r="F32" t="str" cm="1">
-        <f t="array" ref="F32">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-02-01 00:00:00</v>
+      <c r="F32" s="1">
+        <v>45323</v>
       </c>
       <c r="G32" t="str" cm="1">
         <f t="array" ref="G32">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -4595,9 +4568,8 @@
       <c r="E33" t="s">
         <v>11</v>
       </c>
-      <c r="F33" t="str" cm="1">
-        <f t="array" ref="F33">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-02-02 00:00:00</v>
+      <c r="F33" s="1">
+        <v>45324</v>
       </c>
       <c r="G33" t="str" cm="1">
         <f t="array" ref="G33">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -4621,9 +4593,8 @@
       <c r="D34" t="s">
         <v>58</v>
       </c>
-      <c r="F34" t="str" cm="1">
-        <f t="array" ref="F34">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-02-03 00:00:00</v>
+      <c r="F34" s="1">
+        <v>45325</v>
       </c>
       <c r="G34" t="str" cm="1">
         <f t="array" ref="G34">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -4650,9 +4621,8 @@
       <c r="E35" t="s">
         <v>11</v>
       </c>
-      <c r="F35" t="str" cm="1">
-        <f t="array" ref="F35">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-02-04 00:00:00</v>
+      <c r="F35" s="1">
+        <v>45326</v>
       </c>
       <c r="G35" t="str" cm="1">
         <f t="array" ref="G35">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -4676,9 +4646,8 @@
       <c r="D36" t="s">
         <v>61</v>
       </c>
-      <c r="F36" t="str" cm="1">
-        <f t="array" ref="F36">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-02-05 00:00:00</v>
+      <c r="F36" s="1">
+        <v>45327</v>
       </c>
       <c r="G36" t="str" cm="1">
         <f t="array" ref="G36">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -4705,9 +4674,8 @@
       <c r="E37" t="s">
         <v>11</v>
       </c>
-      <c r="F37" t="str" cm="1">
-        <f t="array" ref="F37">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-02-06 00:00:00</v>
+      <c r="F37" s="1">
+        <v>45328</v>
       </c>
       <c r="G37" t="str" cm="1">
         <f t="array" ref="G37">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -4731,9 +4699,8 @@
       <c r="D38" t="s">
         <v>64</v>
       </c>
-      <c r="F38" t="str" cm="1">
-        <f t="array" ref="F38">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-02-07 00:00:00</v>
+      <c r="F38" s="1">
+        <v>45329</v>
       </c>
       <c r="G38" t="str" cm="1">
         <f t="array" ref="G38">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -4760,9 +4727,8 @@
       <c r="E39" t="s">
         <v>11</v>
       </c>
-      <c r="F39" t="str" cm="1">
-        <f t="array" ref="F39">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-02-08 00:00:00</v>
+      <c r="F39" s="1">
+        <v>45330</v>
       </c>
       <c r="G39" t="str" cm="1">
         <f t="array" ref="G39">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -4786,9 +4752,8 @@
       <c r="D40" t="s">
         <v>67</v>
       </c>
-      <c r="F40" t="str" cm="1">
-        <f t="array" ref="F40">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-02-09 00:00:00</v>
+      <c r="F40" s="1">
+        <v>45331</v>
       </c>
       <c r="G40" t="str" cm="1">
         <f t="array" ref="G40">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -4815,9 +4780,8 @@
       <c r="E41" t="s">
         <v>11</v>
       </c>
-      <c r="F41" t="str" cm="1">
-        <f t="array" ref="F41">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-02-10 00:00:00</v>
+      <c r="F41" s="1">
+        <v>45332</v>
       </c>
       <c r="G41" t="str" cm="1">
         <f t="array" ref="G41">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -4841,9 +4805,8 @@
       <c r="D42" t="s">
         <v>70</v>
       </c>
-      <c r="F42" t="str" cm="1">
-        <f t="array" ref="F42">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-02-11 00:00:00</v>
+      <c r="F42" s="1">
+        <v>45333</v>
       </c>
       <c r="G42" t="str" cm="1">
         <f t="array" ref="G42">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -4870,9 +4833,8 @@
       <c r="E43" t="s">
         <v>11</v>
       </c>
-      <c r="F43" t="str" cm="1">
-        <f t="array" ref="F43">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-02-12 00:00:00</v>
+      <c r="F43" s="1">
+        <v>45334</v>
       </c>
       <c r="G43" t="str" cm="1">
         <f t="array" ref="G43">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -4896,9 +4858,8 @@
       <c r="D44" t="s">
         <v>73</v>
       </c>
-      <c r="F44" t="str" cm="1">
-        <f t="array" ref="F44">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-02-13 00:00:00</v>
+      <c r="F44" s="1">
+        <v>45335</v>
       </c>
       <c r="G44" t="str" cm="1">
         <f t="array" ref="G44">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -4925,9 +4886,8 @@
       <c r="E45" t="s">
         <v>11</v>
       </c>
-      <c r="F45" t="str" cm="1">
-        <f t="array" ref="F45">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-02-14 00:00:00</v>
+      <c r="F45" s="1">
+        <v>45336</v>
       </c>
       <c r="G45" t="str" cm="1">
         <f t="array" ref="G45">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -4951,9 +4911,8 @@
       <c r="D46" t="s">
         <v>76</v>
       </c>
-      <c r="F46" t="str" cm="1">
-        <f t="array" ref="F46">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-02-15 00:00:00</v>
+      <c r="F46" s="1">
+        <v>45337</v>
       </c>
       <c r="G46" t="str" cm="1">
         <f t="array" ref="G46">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -4980,9 +4939,8 @@
       <c r="E47" t="s">
         <v>11</v>
       </c>
-      <c r="F47" t="str" cm="1">
-        <f t="array" ref="F47">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-02-16 00:00:00</v>
+      <c r="F47" s="1">
+        <v>45338</v>
       </c>
       <c r="G47" t="str" cm="1">
         <f t="array" ref="G47">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -5006,9 +4964,8 @@
       <c r="D48" t="s">
         <v>79</v>
       </c>
-      <c r="F48" t="str" cm="1">
-        <f t="array" ref="F48">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-02-17 00:00:00</v>
+      <c r="F48" s="1">
+        <v>45339</v>
       </c>
       <c r="G48" t="str" cm="1">
         <f t="array" ref="G48">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -5035,9 +4992,8 @@
       <c r="E49" t="s">
         <v>11</v>
       </c>
-      <c r="F49" t="str" cm="1">
-        <f t="array" ref="F49">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-02-18 00:00:00</v>
+      <c r="F49" s="1">
+        <v>45340</v>
       </c>
       <c r="G49" t="str" cm="1">
         <f t="array" ref="G49">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -5061,9 +5017,8 @@
       <c r="D50" t="s">
         <v>82</v>
       </c>
-      <c r="F50" t="str" cm="1">
-        <f t="array" ref="F50">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-02-19 00:00:00</v>
+      <c r="F50" s="1">
+        <v>45341</v>
       </c>
       <c r="G50" t="str" cm="1">
         <f t="array" ref="G50">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -5090,9 +5045,8 @@
       <c r="E51" t="s">
         <v>11</v>
       </c>
-      <c r="F51" t="str" cm="1">
-        <f t="array" ref="F51">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-02-20 00:00:00</v>
+      <c r="F51" s="1">
+        <v>45342</v>
       </c>
       <c r="G51" t="str" cm="1">
         <f t="array" ref="G51">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -5116,9 +5070,8 @@
       <c r="D52" t="s">
         <v>85</v>
       </c>
-      <c r="F52" t="str" cm="1">
-        <f t="array" ref="F52">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-02-21 00:00:00</v>
+      <c r="F52" s="1">
+        <v>45343</v>
       </c>
       <c r="G52" t="str" cm="1">
         <f t="array" ref="G52">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -5145,9 +5098,8 @@
       <c r="E53" t="s">
         <v>11</v>
       </c>
-      <c r="F53" t="str" cm="1">
-        <f t="array" ref="F53">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-02-22 00:00:00</v>
+      <c r="F53" s="1">
+        <v>45344</v>
       </c>
       <c r="G53" t="str" cm="1">
         <f t="array" ref="G53">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -5171,9 +5123,8 @@
       <c r="D54" t="s">
         <v>88</v>
       </c>
-      <c r="F54" t="str" cm="1">
-        <f t="array" ref="F54">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-02-23 00:00:00</v>
+      <c r="F54" s="1">
+        <v>45345</v>
       </c>
       <c r="G54" t="str" cm="1">
         <f t="array" ref="G54">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -5200,9 +5151,8 @@
       <c r="E55" t="s">
         <v>11</v>
       </c>
-      <c r="F55" t="str" cm="1">
-        <f t="array" ref="F55">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-02-24 00:00:00</v>
+      <c r="F55" s="1">
+        <v>45346</v>
       </c>
       <c r="G55" t="str" cm="1">
         <f t="array" ref="G55">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -5226,9 +5176,8 @@
       <c r="D56" t="s">
         <v>91</v>
       </c>
-      <c r="F56" t="str" cm="1">
-        <f t="array" ref="F56">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-02-25 00:00:00</v>
+      <c r="F56" s="1">
+        <v>45347</v>
       </c>
       <c r="G56" t="str" cm="1">
         <f t="array" ref="G56">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -5255,9 +5204,8 @@
       <c r="E57" t="s">
         <v>11</v>
       </c>
-      <c r="F57" t="str" cm="1">
-        <f t="array" ref="F57">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-02-26 00:00:00</v>
+      <c r="F57" s="1">
+        <v>45348</v>
       </c>
       <c r="G57" t="str" cm="1">
         <f t="array" ref="G57">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -5281,9 +5229,8 @@
       <c r="D58" t="s">
         <v>94</v>
       </c>
-      <c r="F58" t="str" cm="1">
-        <f t="array" ref="F58">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-02-27 00:00:00</v>
+      <c r="F58" s="1">
+        <v>45349</v>
       </c>
       <c r="G58" t="str" cm="1">
         <f t="array" ref="G58">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -5310,9 +5257,8 @@
       <c r="E59" t="s">
         <v>11</v>
       </c>
-      <c r="F59" t="str" cm="1">
-        <f t="array" ref="F59">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-02-28 00:00:00</v>
+      <c r="F59" s="1">
+        <v>45350</v>
       </c>
       <c r="G59" t="str" cm="1">
         <f t="array" ref="G59">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -5336,9 +5282,8 @@
       <c r="D60" t="s">
         <v>97</v>
       </c>
-      <c r="F60" t="str" cm="1">
-        <f t="array" ref="F60">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-02-29 00:00:00</v>
+      <c r="F60" s="1">
+        <v>45351</v>
       </c>
       <c r="G60" t="str" cm="1">
         <f t="array" ref="G60">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -5365,9 +5310,8 @@
       <c r="E61" t="s">
         <v>11</v>
       </c>
-      <c r="F61" t="str" cm="1">
-        <f t="array" ref="F61">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-03-01 00:00:00</v>
+      <c r="F61" s="1">
+        <v>45352</v>
       </c>
       <c r="G61" t="str" cm="1">
         <f t="array" ref="G61">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -5391,9 +5335,8 @@
       <c r="D62" t="s">
         <v>100</v>
       </c>
-      <c r="F62" t="str" cm="1">
-        <f t="array" ref="F62">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-03-02 00:00:00</v>
+      <c r="F62" s="1">
+        <v>45353</v>
       </c>
       <c r="G62" t="str" cm="1">
         <f t="array" ref="G62">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -5420,9 +5363,8 @@
       <c r="E63" t="s">
         <v>11</v>
       </c>
-      <c r="F63" t="str" cm="1">
-        <f t="array" ref="F63">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-03-03 00:00:00</v>
+      <c r="F63" s="1">
+        <v>45354</v>
       </c>
       <c r="G63" t="str" cm="1">
         <f t="array" ref="G63">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -5446,9 +5388,8 @@
       <c r="D64" t="s">
         <v>103</v>
       </c>
-      <c r="F64" t="str" cm="1">
-        <f t="array" ref="F64">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-03-04 00:00:00</v>
+      <c r="F64" s="1">
+        <v>45355</v>
       </c>
       <c r="G64" t="str" cm="1">
         <f t="array" ref="G64">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -5475,9 +5416,8 @@
       <c r="E65" t="s">
         <v>11</v>
       </c>
-      <c r="F65" t="str" cm="1">
-        <f t="array" ref="F65">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-03-05 00:00:00</v>
+      <c r="F65" s="1">
+        <v>45356</v>
       </c>
       <c r="G65" t="str" cm="1">
         <f t="array" ref="G65">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -5501,9 +5441,8 @@
       <c r="D66" t="s">
         <v>106</v>
       </c>
-      <c r="F66" t="str" cm="1">
-        <f t="array" ref="F66">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-03-06 00:00:00</v>
+      <c r="F66" s="1">
+        <v>45357</v>
       </c>
       <c r="G66" t="str" cm="1">
         <f t="array" ref="G66">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -5530,9 +5469,8 @@
       <c r="E67" t="s">
         <v>11</v>
       </c>
-      <c r="F67" t="str" cm="1">
-        <f t="array" ref="F67">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-03-07 00:00:00</v>
+      <c r="F67" s="1">
+        <v>45358</v>
       </c>
       <c r="G67" t="str" cm="1">
         <f t="array" ref="G67">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -5556,9 +5494,8 @@
       <c r="D68" t="s">
         <v>109</v>
       </c>
-      <c r="F68" t="str" cm="1">
-        <f t="array" ref="F68">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-03-08 00:00:00</v>
+      <c r="F68" s="1">
+        <v>45359</v>
       </c>
       <c r="G68" t="str" cm="1">
         <f t="array" ref="G68">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -5585,9 +5522,8 @@
       <c r="E69" t="s">
         <v>11</v>
       </c>
-      <c r="F69" t="str" cm="1">
-        <f t="array" ref="F69">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-03-09 00:00:00</v>
+      <c r="F69" s="1">
+        <v>45360</v>
       </c>
       <c r="G69" t="str" cm="1">
         <f t="array" ref="G69">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -5611,9 +5547,8 @@
       <c r="D70" t="s">
         <v>112</v>
       </c>
-      <c r="F70" t="str" cm="1">
-        <f t="array" ref="F70">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-03-10 00:00:00</v>
+      <c r="F70" s="1">
+        <v>45361</v>
       </c>
       <c r="G70" t="str" cm="1">
         <f t="array" ref="G70">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -5640,9 +5575,8 @@
       <c r="E71" t="s">
         <v>11</v>
       </c>
-      <c r="F71" t="str" cm="1">
-        <f t="array" ref="F71">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-03-11 00:00:00</v>
+      <c r="F71" s="1">
+        <v>45362</v>
       </c>
       <c r="G71" t="str" cm="1">
         <f t="array" ref="G71">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -5666,9 +5600,8 @@
       <c r="D72" t="s">
         <v>115</v>
       </c>
-      <c r="F72" t="str" cm="1">
-        <f t="array" ref="F72">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-03-12 00:00:00</v>
+      <c r="F72" s="1">
+        <v>45363</v>
       </c>
       <c r="G72" t="str" cm="1">
         <f t="array" ref="G72">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -5695,9 +5628,8 @@
       <c r="E73" t="s">
         <v>11</v>
       </c>
-      <c r="F73" t="str" cm="1">
-        <f t="array" ref="F73">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-03-13 00:00:00</v>
+      <c r="F73" s="1">
+        <v>45364</v>
       </c>
       <c r="G73" t="str" cm="1">
         <f t="array" ref="G73">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -5721,9 +5653,8 @@
       <c r="D74" t="s">
         <v>118</v>
       </c>
-      <c r="F74" t="str" cm="1">
-        <f t="array" ref="F74">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-03-14 00:00:00</v>
+      <c r="F74" s="1">
+        <v>45365</v>
       </c>
       <c r="G74" t="str" cm="1">
         <f t="array" ref="G74">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -5750,9 +5681,8 @@
       <c r="E75" t="s">
         <v>11</v>
       </c>
-      <c r="F75" t="str" cm="1">
-        <f t="array" ref="F75">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-03-15 00:00:00</v>
+      <c r="F75" s="1">
+        <v>45366</v>
       </c>
       <c r="G75" t="str" cm="1">
         <f t="array" ref="G75">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -5776,9 +5706,8 @@
       <c r="D76" t="s">
         <v>121</v>
       </c>
-      <c r="F76" t="str" cm="1">
-        <f t="array" ref="F76">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-03-16 00:00:00</v>
+      <c r="F76" s="1">
+        <v>45367</v>
       </c>
       <c r="G76" t="str" cm="1">
         <f t="array" ref="G76">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -5805,9 +5734,8 @@
       <c r="E77" t="s">
         <v>11</v>
       </c>
-      <c r="F77" t="str" cm="1">
-        <f t="array" ref="F77">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-03-17 00:00:00</v>
+      <c r="F77" s="1">
+        <v>45368</v>
       </c>
       <c r="G77" t="str" cm="1">
         <f t="array" ref="G77">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -5831,9 +5759,8 @@
       <c r="D78" t="s">
         <v>124</v>
       </c>
-      <c r="F78" t="str" cm="1">
-        <f t="array" ref="F78">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-03-18 00:00:00</v>
+      <c r="F78" s="1">
+        <v>45369</v>
       </c>
       <c r="G78" t="str" cm="1">
         <f t="array" ref="G78">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -5860,9 +5787,8 @@
       <c r="E79" t="s">
         <v>11</v>
       </c>
-      <c r="F79" t="str" cm="1">
-        <f t="array" ref="F79">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-03-19 00:00:00</v>
+      <c r="F79" s="1">
+        <v>45370</v>
       </c>
       <c r="G79" t="str" cm="1">
         <f t="array" ref="G79">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -5886,9 +5812,8 @@
       <c r="D80" t="s">
         <v>127</v>
       </c>
-      <c r="F80" t="str" cm="1">
-        <f t="array" ref="F80">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-03-20 00:00:00</v>
+      <c r="F80" s="1">
+        <v>45371</v>
       </c>
       <c r="G80" t="str" cm="1">
         <f t="array" ref="G80">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -5915,9 +5840,8 @@
       <c r="E81" t="s">
         <v>11</v>
       </c>
-      <c r="F81" t="str" cm="1">
-        <f t="array" ref="F81">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-03-21 00:00:00</v>
+      <c r="F81" s="1">
+        <v>45372</v>
       </c>
       <c r="G81" t="str" cm="1">
         <f t="array" ref="G81">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -5941,9 +5865,8 @@
       <c r="D82" t="s">
         <v>130</v>
       </c>
-      <c r="F82" t="str" cm="1">
-        <f t="array" ref="F82">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-03-22 00:00:00</v>
+      <c r="F82" s="1">
+        <v>45373</v>
       </c>
       <c r="G82" t="str" cm="1">
         <f t="array" ref="G82">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -5970,9 +5893,8 @@
       <c r="E83" t="s">
         <v>11</v>
       </c>
-      <c r="F83" t="str" cm="1">
-        <f t="array" ref="F83">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-03-23 00:00:00</v>
+      <c r="F83" s="1">
+        <v>45374</v>
       </c>
       <c r="G83" t="str" cm="1">
         <f t="array" ref="G83">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -5996,9 +5918,8 @@
       <c r="D84" t="s">
         <v>133</v>
       </c>
-      <c r="F84" t="str" cm="1">
-        <f t="array" ref="F84">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-03-24 00:00:00</v>
+      <c r="F84" s="1">
+        <v>45375</v>
       </c>
       <c r="G84" t="str" cm="1">
         <f t="array" ref="G84">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -6025,9 +5946,8 @@
       <c r="E85" t="s">
         <v>11</v>
       </c>
-      <c r="F85" t="str" cm="1">
-        <f t="array" ref="F85">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-03-25 00:00:00</v>
+      <c r="F85" s="1">
+        <v>45376</v>
       </c>
       <c r="G85" t="str" cm="1">
         <f t="array" ref="G85">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -6051,9 +5971,8 @@
       <c r="D86" t="s">
         <v>136</v>
       </c>
-      <c r="F86" t="str" cm="1">
-        <f t="array" ref="F86">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-03-26 00:00:00</v>
+      <c r="F86" s="1">
+        <v>45377</v>
       </c>
       <c r="G86" t="str" cm="1">
         <f t="array" ref="G86">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -6080,9 +5999,8 @@
       <c r="E87" t="s">
         <v>11</v>
       </c>
-      <c r="F87" t="str" cm="1">
-        <f t="array" ref="F87">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-03-27 00:00:00</v>
+      <c r="F87" s="1">
+        <v>45378</v>
       </c>
       <c r="G87" t="str" cm="1">
         <f t="array" ref="G87">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -6106,9 +6024,8 @@
       <c r="D88" t="s">
         <v>139</v>
       </c>
-      <c r="F88" t="str" cm="1">
-        <f t="array" ref="F88">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-03-28 00:00:00</v>
+      <c r="F88" s="1">
+        <v>45379</v>
       </c>
       <c r="G88" t="str" cm="1">
         <f t="array" ref="G88">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -6135,9 +6052,8 @@
       <c r="E89" t="s">
         <v>11</v>
       </c>
-      <c r="F89" t="str" cm="1">
-        <f t="array" ref="F89">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-03-29 00:00:00</v>
+      <c r="F89" s="1">
+        <v>45380</v>
       </c>
       <c r="G89" t="str" cm="1">
         <f t="array" ref="G89">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -6161,9 +6077,8 @@
       <c r="D90" t="s">
         <v>142</v>
       </c>
-      <c r="F90" t="str" cm="1">
-        <f t="array" ref="F90">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-03-30 00:00:00</v>
+      <c r="F90" s="1">
+        <v>45381</v>
       </c>
       <c r="G90" t="str" cm="1">
         <f t="array" ref="G90">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -6190,9 +6105,8 @@
       <c r="E91" t="s">
         <v>11</v>
       </c>
-      <c r="F91" t="str" cm="1">
-        <f t="array" ref="F91">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-03-31 00:00:00</v>
+      <c r="F91" s="1">
+        <v>45382</v>
       </c>
       <c r="G91" t="str" cm="1">
         <f t="array" ref="G91">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -6216,9 +6130,8 @@
       <c r="D92" t="s">
         <v>145</v>
       </c>
-      <c r="F92" t="str" cm="1">
-        <f t="array" ref="F92">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-04-01 00:00:00</v>
+      <c r="F92" s="1">
+        <v>45383</v>
       </c>
       <c r="G92" t="str" cm="1">
         <f t="array" ref="G92">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -6245,9 +6158,8 @@
       <c r="E93" t="s">
         <v>11</v>
       </c>
-      <c r="F93" t="str" cm="1">
-        <f t="array" ref="F93">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-04-02 00:00:00</v>
+      <c r="F93" s="1">
+        <v>45384</v>
       </c>
       <c r="G93" t="str" cm="1">
         <f t="array" ref="G93">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -6271,9 +6183,8 @@
       <c r="D94" t="s">
         <v>148</v>
       </c>
-      <c r="F94" t="str" cm="1">
-        <f t="array" ref="F94">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-04-03 00:00:00</v>
+      <c r="F94" s="1">
+        <v>45385</v>
       </c>
       <c r="G94" t="str" cm="1">
         <f t="array" ref="G94">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -6300,9 +6211,8 @@
       <c r="E95" t="s">
         <v>11</v>
       </c>
-      <c r="F95" t="str" cm="1">
-        <f t="array" ref="F95">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-04-04 00:00:00</v>
+      <c r="F95" s="1">
+        <v>45386</v>
       </c>
       <c r="G95" t="str" cm="1">
         <f t="array" ref="G95">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -6326,9 +6236,8 @@
       <c r="D96" t="s">
         <v>151</v>
       </c>
-      <c r="F96" t="str" cm="1">
-        <f t="array" ref="F96">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-04-05 00:00:00</v>
+      <c r="F96" s="1">
+        <v>45387</v>
       </c>
       <c r="G96" t="str" cm="1">
         <f t="array" ref="G96">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -6355,9 +6264,8 @@
       <c r="E97" t="s">
         <v>11</v>
       </c>
-      <c r="F97" t="str" cm="1">
-        <f t="array" ref="F97">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-04-06 00:00:00</v>
+      <c r="F97" s="1">
+        <v>45388</v>
       </c>
       <c r="G97" t="str" cm="1">
         <f t="array" ref="G97">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -6381,9 +6289,8 @@
       <c r="D98" t="s">
         <v>154</v>
       </c>
-      <c r="F98" t="str" cm="1">
-        <f t="array" ref="F98">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-04-07 00:00:00</v>
+      <c r="F98" s="1">
+        <v>45389</v>
       </c>
       <c r="G98" t="str" cm="1">
         <f t="array" ref="G98">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -6410,9 +6317,8 @@
       <c r="E99" t="s">
         <v>11</v>
       </c>
-      <c r="F99" t="str" cm="1">
-        <f t="array" ref="F99">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-04-08 00:00:00</v>
+      <c r="F99" s="1">
+        <v>45390</v>
       </c>
       <c r="G99" t="str" cm="1">
         <f t="array" ref="G99">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -6436,9 +6342,8 @@
       <c r="D100" t="s">
         <v>157</v>
       </c>
-      <c r="F100" t="str" cm="1">
-        <f t="array" ref="F100">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-04-09 00:00:00</v>
+      <c r="F100" s="1">
+        <v>45391</v>
       </c>
       <c r="G100" t="str" cm="1">
         <f t="array" ref="G100">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -6465,9 +6370,8 @@
       <c r="E101" t="s">
         <v>11</v>
       </c>
-      <c r="F101" t="str" cm="1">
-        <f t="array" ref="F101">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-04-10 00:00:00</v>
+      <c r="F101" s="1">
+        <v>45392</v>
       </c>
       <c r="G101" t="str" cm="1">
         <f t="array" ref="G101">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -6491,9 +6395,8 @@
       <c r="D102" t="s">
         <v>160</v>
       </c>
-      <c r="F102" t="str" cm="1">
-        <f t="array" ref="F102">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-04-11 00:00:00</v>
+      <c r="F102" s="1">
+        <v>45393</v>
       </c>
       <c r="G102" t="str" cm="1">
         <f t="array" ref="G102">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -6520,9 +6423,8 @@
       <c r="E103" t="s">
         <v>11</v>
       </c>
-      <c r="F103" t="str" cm="1">
-        <f t="array" ref="F103">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-04-12 00:00:00</v>
+      <c r="F103" s="1">
+        <v>45394</v>
       </c>
       <c r="G103" t="str" cm="1">
         <f t="array" ref="G103">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -6546,9 +6448,8 @@
       <c r="D104" t="s">
         <v>163</v>
       </c>
-      <c r="F104" t="str" cm="1">
-        <f t="array" ref="F104">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-04-13 00:00:00</v>
+      <c r="F104" s="1">
+        <v>45395</v>
       </c>
       <c r="G104" t="str" cm="1">
         <f t="array" ref="G104">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -6575,9 +6476,8 @@
       <c r="E105" t="s">
         <v>11</v>
       </c>
-      <c r="F105" t="str" cm="1">
-        <f t="array" ref="F105">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-04-14 00:00:00</v>
+      <c r="F105" s="1">
+        <v>45396</v>
       </c>
       <c r="G105" t="str" cm="1">
         <f t="array" ref="G105">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -6601,9 +6501,8 @@
       <c r="D106" t="s">
         <v>166</v>
       </c>
-      <c r="F106" t="str" cm="1">
-        <f t="array" ref="F106">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-04-15 00:00:00</v>
+      <c r="F106" s="1">
+        <v>45397</v>
       </c>
       <c r="G106" t="str" cm="1">
         <f t="array" ref="G106">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -6630,9 +6529,8 @@
       <c r="E107" t="s">
         <v>11</v>
       </c>
-      <c r="F107" t="str" cm="1">
-        <f t="array" ref="F107">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-04-16 00:00:00</v>
+      <c r="F107" s="1">
+        <v>45398</v>
       </c>
       <c r="G107" t="str" cm="1">
         <f t="array" ref="G107">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -6656,9 +6554,8 @@
       <c r="D108" t="s">
         <v>169</v>
       </c>
-      <c r="F108" t="str" cm="1">
-        <f t="array" ref="F108">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-04-17 00:00:00</v>
+      <c r="F108" s="1">
+        <v>45399</v>
       </c>
       <c r="G108" t="str" cm="1">
         <f t="array" ref="G108">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -6685,9 +6582,8 @@
       <c r="E109" t="s">
         <v>11</v>
       </c>
-      <c r="F109" t="str" cm="1">
-        <f t="array" ref="F109">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-04-18 00:00:00</v>
+      <c r="F109" s="1">
+        <v>45400</v>
       </c>
       <c r="G109" t="str" cm="1">
         <f t="array" ref="G109">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -6711,9 +6607,8 @@
       <c r="D110" t="s">
         <v>172</v>
       </c>
-      <c r="F110" t="str" cm="1">
-        <f t="array" ref="F110">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-04-19 00:00:00</v>
+      <c r="F110" s="1">
+        <v>45401</v>
       </c>
       <c r="G110" t="str" cm="1">
         <f t="array" ref="G110">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -6740,9 +6635,8 @@
       <c r="E111" t="s">
         <v>11</v>
       </c>
-      <c r="F111" t="str" cm="1">
-        <f t="array" ref="F111">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-04-20 00:00:00</v>
+      <c r="F111" s="1">
+        <v>45402</v>
       </c>
       <c r="G111" t="str" cm="1">
         <f t="array" ref="G111">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -6766,9 +6660,8 @@
       <c r="D112" t="s">
         <v>175</v>
       </c>
-      <c r="F112" t="str" cm="1">
-        <f t="array" ref="F112">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-04-21 00:00:00</v>
+      <c r="F112" s="1">
+        <v>45403</v>
       </c>
       <c r="G112" t="str" cm="1">
         <f t="array" ref="G112">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -6795,9 +6688,8 @@
       <c r="E113" t="s">
         <v>11</v>
       </c>
-      <c r="F113" t="str" cm="1">
-        <f t="array" ref="F113">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-04-22 00:00:00</v>
+      <c r="F113" s="1">
+        <v>45404</v>
       </c>
       <c r="G113" t="str" cm="1">
         <f t="array" ref="G113">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -6821,9 +6713,8 @@
       <c r="D114" t="s">
         <v>178</v>
       </c>
-      <c r="F114" t="str" cm="1">
-        <f t="array" ref="F114">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-04-23 00:00:00</v>
+      <c r="F114" s="1">
+        <v>45405</v>
       </c>
       <c r="G114" t="str" cm="1">
         <f t="array" ref="G114">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -6850,9 +6741,8 @@
       <c r="E115" t="s">
         <v>11</v>
       </c>
-      <c r="F115" t="str" cm="1">
-        <f t="array" ref="F115">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-04-24 00:00:00</v>
+      <c r="F115" s="1">
+        <v>45406</v>
       </c>
       <c r="G115" t="str" cm="1">
         <f t="array" ref="G115">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -6876,9 +6766,8 @@
       <c r="D116" t="s">
         <v>181</v>
       </c>
-      <c r="F116" t="str" cm="1">
-        <f t="array" ref="F116">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-04-25 00:00:00</v>
+      <c r="F116" s="1">
+        <v>45407</v>
       </c>
       <c r="G116" t="str" cm="1">
         <f t="array" ref="G116">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -6905,9 +6794,8 @@
       <c r="E117" t="s">
         <v>11</v>
       </c>
-      <c r="F117" t="str" cm="1">
-        <f t="array" ref="F117">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-04-26 00:00:00</v>
+      <c r="F117" s="1">
+        <v>45408</v>
       </c>
       <c r="G117" t="str" cm="1">
         <f t="array" ref="G117">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -6931,9 +6819,8 @@
       <c r="D118" t="s">
         <v>184</v>
       </c>
-      <c r="F118" t="str" cm="1">
-        <f t="array" ref="F118">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-04-27 00:00:00</v>
+      <c r="F118" s="1">
+        <v>45409</v>
       </c>
       <c r="G118" t="str" cm="1">
         <f t="array" ref="G118">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -6960,9 +6847,8 @@
       <c r="E119" t="s">
         <v>11</v>
       </c>
-      <c r="F119" t="str" cm="1">
-        <f t="array" ref="F119">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-04-28 00:00:00</v>
+      <c r="F119" s="1">
+        <v>45410</v>
       </c>
       <c r="G119" t="str" cm="1">
         <f t="array" ref="G119">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -6986,9 +6872,8 @@
       <c r="D120" t="s">
         <v>187</v>
       </c>
-      <c r="F120" t="str" cm="1">
-        <f t="array" ref="F120">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-04-29 00:00:00</v>
+      <c r="F120" s="1">
+        <v>45411</v>
       </c>
       <c r="G120" t="str" cm="1">
         <f t="array" ref="G120">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -7015,9 +6900,8 @@
       <c r="E121" t="s">
         <v>11</v>
       </c>
-      <c r="F121" t="str" cm="1">
-        <f t="array" ref="F121">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-04-30 00:00:00</v>
+      <c r="F121" s="1">
+        <v>45412</v>
       </c>
       <c r="G121" t="str" cm="1">
         <f t="array" ref="G121">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -7041,9 +6925,8 @@
       <c r="D122" t="s">
         <v>190</v>
       </c>
-      <c r="F122" t="str" cm="1">
-        <f t="array" ref="F122">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-05-01 00:00:00</v>
+      <c r="F122" s="1">
+        <v>45413</v>
       </c>
       <c r="G122" t="str" cm="1">
         <f t="array" ref="G122">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -7070,9 +6953,8 @@
       <c r="E123" t="s">
         <v>11</v>
       </c>
-      <c r="F123" t="str" cm="1">
-        <f t="array" ref="F123">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-05-02 00:00:00</v>
+      <c r="F123" s="1">
+        <v>45414</v>
       </c>
       <c r="G123" t="str" cm="1">
         <f t="array" ref="G123">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -7096,9 +6978,8 @@
       <c r="D124" t="s">
         <v>193</v>
       </c>
-      <c r="F124" t="str" cm="1">
-        <f t="array" ref="F124">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-05-03 00:00:00</v>
+      <c r="F124" s="1">
+        <v>45415</v>
       </c>
       <c r="G124" t="str" cm="1">
         <f t="array" ref="G124">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -7125,9 +7006,8 @@
       <c r="E125" t="s">
         <v>11</v>
       </c>
-      <c r="F125" t="str" cm="1">
-        <f t="array" ref="F125">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-05-04 00:00:00</v>
+      <c r="F125" s="1">
+        <v>45416</v>
       </c>
       <c r="G125" t="str" cm="1">
         <f t="array" ref="G125">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -7151,9 +7031,8 @@
       <c r="D126" t="s">
         <v>196</v>
       </c>
-      <c r="F126" t="str" cm="1">
-        <f t="array" ref="F126">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-05-05 00:00:00</v>
+      <c r="F126" s="1">
+        <v>45417</v>
       </c>
       <c r="G126" t="str" cm="1">
         <f t="array" ref="G126">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -7180,9 +7059,8 @@
       <c r="E127" t="s">
         <v>11</v>
       </c>
-      <c r="F127" t="str" cm="1">
-        <f t="array" ref="F127">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-05-06 00:00:00</v>
+      <c r="F127" s="1">
+        <v>45418</v>
       </c>
       <c r="G127" t="str" cm="1">
         <f t="array" ref="G127">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -7206,9 +7084,8 @@
       <c r="D128" t="s">
         <v>199</v>
       </c>
-      <c r="F128" t="str" cm="1">
-        <f t="array" ref="F128">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-05-07 00:00:00</v>
+      <c r="F128" s="1">
+        <v>45419</v>
       </c>
       <c r="G128" t="str" cm="1">
         <f t="array" ref="G128">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -7235,9 +7112,8 @@
       <c r="E129" t="s">
         <v>11</v>
       </c>
-      <c r="F129" t="str" cm="1">
-        <f t="array" ref="F129">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-05-08 00:00:00</v>
+      <c r="F129" s="1">
+        <v>45420</v>
       </c>
       <c r="G129" t="str" cm="1">
         <f t="array" ref="G129">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -7261,9 +7137,8 @@
       <c r="D130" t="s">
         <v>202</v>
       </c>
-      <c r="F130" t="str" cm="1">
-        <f t="array" ref="F130">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-05-09 00:00:00</v>
+      <c r="F130" s="1">
+        <v>45421</v>
       </c>
       <c r="G130" t="str" cm="1">
         <f t="array" ref="G130">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -7290,9 +7165,8 @@
       <c r="E131" t="s">
         <v>11</v>
       </c>
-      <c r="F131" t="str" cm="1">
-        <f t="array" ref="F131">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-05-10 00:00:00</v>
+      <c r="F131" s="1">
+        <v>45422</v>
       </c>
       <c r="G131" t="str" cm="1">
         <f t="array" ref="G131">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -7316,9 +7190,8 @@
       <c r="D132" t="s">
         <v>205</v>
       </c>
-      <c r="F132" t="str" cm="1">
-        <f t="array" ref="F132">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-05-11 00:00:00</v>
+      <c r="F132" s="1">
+        <v>45423</v>
       </c>
       <c r="G132" t="str" cm="1">
         <f t="array" ref="G132">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -7345,9 +7218,8 @@
       <c r="E133" t="s">
         <v>11</v>
       </c>
-      <c r="F133" t="str" cm="1">
-        <f t="array" ref="F133">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-05-12 00:00:00</v>
+      <c r="F133" s="1">
+        <v>45424</v>
       </c>
       <c r="G133" t="str" cm="1">
         <f t="array" ref="G133">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -7371,9 +7243,8 @@
       <c r="D134" t="s">
         <v>208</v>
       </c>
-      <c r="F134" t="str" cm="1">
-        <f t="array" ref="F134">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-05-13 00:00:00</v>
+      <c r="F134" s="1">
+        <v>45425</v>
       </c>
       <c r="G134" t="str" cm="1">
         <f t="array" ref="G134">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -7400,9 +7271,8 @@
       <c r="E135" t="s">
         <v>11</v>
       </c>
-      <c r="F135" t="str" cm="1">
-        <f t="array" ref="F135">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-05-14 00:00:00</v>
+      <c r="F135" s="1">
+        <v>45426</v>
       </c>
       <c r="G135" t="str" cm="1">
         <f t="array" ref="G135">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -7426,9 +7296,8 @@
       <c r="D136" t="s">
         <v>211</v>
       </c>
-      <c r="F136" t="str" cm="1">
-        <f t="array" ref="F136">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-05-15 00:00:00</v>
+      <c r="F136" s="1">
+        <v>45427</v>
       </c>
       <c r="G136" t="str" cm="1">
         <f t="array" ref="G136">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -7455,9 +7324,8 @@
       <c r="E137" t="s">
         <v>11</v>
       </c>
-      <c r="F137" t="str" cm="1">
-        <f t="array" ref="F137">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-05-16 00:00:00</v>
+      <c r="F137" s="1">
+        <v>45428</v>
       </c>
       <c r="G137" t="str" cm="1">
         <f t="array" ref="G137">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -7481,9 +7349,8 @@
       <c r="D138" t="s">
         <v>214</v>
       </c>
-      <c r="F138" t="str" cm="1">
-        <f t="array" ref="F138">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-05-17 00:00:00</v>
+      <c r="F138" s="1">
+        <v>45429</v>
       </c>
       <c r="G138" t="str" cm="1">
         <f t="array" ref="G138">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -7510,9 +7377,8 @@
       <c r="E139" t="s">
         <v>11</v>
       </c>
-      <c r="F139" t="str" cm="1">
-        <f t="array" ref="F139">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-05-18 00:00:00</v>
+      <c r="F139" s="1">
+        <v>45430</v>
       </c>
       <c r="G139" t="str" cm="1">
         <f t="array" ref="G139">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -7536,9 +7402,8 @@
       <c r="D140" t="s">
         <v>217</v>
       </c>
-      <c r="F140" t="str" cm="1">
-        <f t="array" ref="F140">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-05-19 00:00:00</v>
+      <c r="F140" s="1">
+        <v>45431</v>
       </c>
       <c r="G140" t="str" cm="1">
         <f t="array" ref="G140">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -7565,9 +7430,8 @@
       <c r="E141" t="s">
         <v>11</v>
       </c>
-      <c r="F141" t="str" cm="1">
-        <f t="array" ref="F141">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-05-20 00:00:00</v>
+      <c r="F141" s="1">
+        <v>45432</v>
       </c>
       <c r="G141" t="str" cm="1">
         <f t="array" ref="G141">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -7591,9 +7455,8 @@
       <c r="D142" t="s">
         <v>220</v>
       </c>
-      <c r="F142" t="str" cm="1">
-        <f t="array" ref="F142">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-05-21 00:00:00</v>
+      <c r="F142" s="1">
+        <v>45433</v>
       </c>
       <c r="G142" t="str" cm="1">
         <f t="array" ref="G142">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -7620,9 +7483,8 @@
       <c r="E143" t="s">
         <v>11</v>
       </c>
-      <c r="F143" t="str" cm="1">
-        <f t="array" ref="F143">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-05-22 00:00:00</v>
+      <c r="F143" s="1">
+        <v>45434</v>
       </c>
       <c r="G143" t="str" cm="1">
         <f t="array" ref="G143">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -7646,9 +7508,8 @@
       <c r="D144" t="s">
         <v>223</v>
       </c>
-      <c r="F144" t="str" cm="1">
-        <f t="array" ref="F144">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-05-23 00:00:00</v>
+      <c r="F144" s="1">
+        <v>45435</v>
       </c>
       <c r="G144" t="str" cm="1">
         <f t="array" ref="G144">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -7675,9 +7536,8 @@
       <c r="E145" t="s">
         <v>11</v>
       </c>
-      <c r="F145" t="str" cm="1">
-        <f t="array" ref="F145">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-05-24 00:00:00</v>
+      <c r="F145" s="1">
+        <v>45436</v>
       </c>
       <c r="G145" t="str" cm="1">
         <f t="array" ref="G145">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -7701,9 +7561,8 @@
       <c r="D146" t="s">
         <v>226</v>
       </c>
-      <c r="F146" t="str" cm="1">
-        <f t="array" ref="F146">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-05-25 00:00:00</v>
+      <c r="F146" s="1">
+        <v>45437</v>
       </c>
       <c r="G146" t="str" cm="1">
         <f t="array" ref="G146">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -7730,9 +7589,8 @@
       <c r="E147" t="s">
         <v>11</v>
       </c>
-      <c r="F147" t="str" cm="1">
-        <f t="array" ref="F147">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-05-26 00:00:00</v>
+      <c r="F147" s="1">
+        <v>45438</v>
       </c>
       <c r="G147" t="str" cm="1">
         <f t="array" ref="G147">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -7756,9 +7614,8 @@
       <c r="D148" t="s">
         <v>229</v>
       </c>
-      <c r="F148" t="str" cm="1">
-        <f t="array" ref="F148">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-05-27 00:00:00</v>
+      <c r="F148" s="1">
+        <v>45439</v>
       </c>
       <c r="G148" t="str" cm="1">
         <f t="array" ref="G148">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -7785,9 +7642,8 @@
       <c r="E149" t="s">
         <v>11</v>
       </c>
-      <c r="F149" t="str" cm="1">
-        <f t="array" ref="F149">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-05-28 00:00:00</v>
+      <c r="F149" s="1">
+        <v>45440</v>
       </c>
       <c r="G149" t="str" cm="1">
         <f t="array" ref="G149">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -7811,9 +7667,8 @@
       <c r="D150" t="s">
         <v>232</v>
       </c>
-      <c r="F150" t="str" cm="1">
-        <f t="array" ref="F150">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-05-29 00:00:00</v>
+      <c r="F150" s="1">
+        <v>45441</v>
       </c>
       <c r="G150" t="str" cm="1">
         <f t="array" ref="G150">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -7840,9 +7695,8 @@
       <c r="E151" t="s">
         <v>11</v>
       </c>
-      <c r="F151" t="str" cm="1">
-        <f t="array" ref="F151">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-05-30 00:00:00</v>
+      <c r="F151" s="1">
+        <v>45442</v>
       </c>
       <c r="G151" t="str" cm="1">
         <f t="array" ref="G151">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -7866,9 +7720,8 @@
       <c r="D152" t="s">
         <v>235</v>
       </c>
-      <c r="F152" t="str" cm="1">
-        <f t="array" ref="F152">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-05-31 00:00:00</v>
+      <c r="F152" s="1">
+        <v>45443</v>
       </c>
       <c r="G152" t="str" cm="1">
         <f t="array" ref="G152">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -7895,9 +7748,8 @@
       <c r="E153" t="s">
         <v>11</v>
       </c>
-      <c r="F153" t="str" cm="1">
-        <f t="array" ref="F153">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-06-01 00:00:00</v>
+      <c r="F153" s="1">
+        <v>45444</v>
       </c>
       <c r="G153" t="str" cm="1">
         <f t="array" ref="G153">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -7921,9 +7773,8 @@
       <c r="D154" t="s">
         <v>238</v>
       </c>
-      <c r="F154" t="str" cm="1">
-        <f t="array" ref="F154">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-06-02 00:00:00</v>
+      <c r="F154" s="1">
+        <v>45445</v>
       </c>
       <c r="G154" t="str" cm="1">
         <f t="array" ref="G154">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -7950,9 +7801,8 @@
       <c r="E155" t="s">
         <v>11</v>
       </c>
-      <c r="F155" t="str" cm="1">
-        <f t="array" ref="F155">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-06-03 00:00:00</v>
+      <c r="F155" s="1">
+        <v>45446</v>
       </c>
       <c r="G155" t="str" cm="1">
         <f t="array" ref="G155">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -7976,9 +7826,8 @@
       <c r="D156" t="s">
         <v>241</v>
       </c>
-      <c r="F156" t="str" cm="1">
-        <f t="array" ref="F156">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-06-04 00:00:00</v>
+      <c r="F156" s="1">
+        <v>45447</v>
       </c>
       <c r="G156" t="str" cm="1">
         <f t="array" ref="G156">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -8005,9 +7854,8 @@
       <c r="E157" t="s">
         <v>11</v>
       </c>
-      <c r="F157" t="str" cm="1">
-        <f t="array" ref="F157">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-06-05 00:00:00</v>
+      <c r="F157" s="1">
+        <v>45448</v>
       </c>
       <c r="G157" t="str" cm="1">
         <f t="array" ref="G157">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -8031,9 +7879,8 @@
       <c r="D158" t="s">
         <v>244</v>
       </c>
-      <c r="F158" t="str" cm="1">
-        <f t="array" ref="F158">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-06-06 00:00:00</v>
+      <c r="F158" s="1">
+        <v>45449</v>
       </c>
       <c r="G158" t="str" cm="1">
         <f t="array" ref="G158">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -8060,9 +7907,8 @@
       <c r="E159" t="s">
         <v>11</v>
       </c>
-      <c r="F159" t="str" cm="1">
-        <f t="array" ref="F159">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-06-07 00:00:00</v>
+      <c r="F159" s="1">
+        <v>45450</v>
       </c>
       <c r="G159" t="str" cm="1">
         <f t="array" ref="G159">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -8086,9 +7932,8 @@
       <c r="D160" t="s">
         <v>247</v>
       </c>
-      <c r="F160" t="str" cm="1">
-        <f t="array" ref="F160">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-06-08 00:00:00</v>
+      <c r="F160" s="1">
+        <v>45451</v>
       </c>
       <c r="G160" t="str" cm="1">
         <f t="array" ref="G160">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -8115,9 +7960,8 @@
       <c r="E161" t="s">
         <v>11</v>
       </c>
-      <c r="F161" t="str" cm="1">
-        <f t="array" ref="F161">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-06-09 00:00:00</v>
+      <c r="F161" s="1">
+        <v>45452</v>
       </c>
       <c r="G161" t="str" cm="1">
         <f t="array" ref="G161">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -8141,9 +7985,8 @@
       <c r="D162" t="s">
         <v>250</v>
       </c>
-      <c r="F162" t="str" cm="1">
-        <f t="array" ref="F162">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-06-10 00:00:00</v>
+      <c r="F162" s="1">
+        <v>45453</v>
       </c>
       <c r="G162" t="str" cm="1">
         <f t="array" ref="G162">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -8170,9 +8013,8 @@
       <c r="E163" t="s">
         <v>11</v>
       </c>
-      <c r="F163" t="str" cm="1">
-        <f t="array" ref="F163">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-06-11 00:00:00</v>
+      <c r="F163" s="1">
+        <v>45454</v>
       </c>
       <c r="G163" t="str" cm="1">
         <f t="array" ref="G163">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -8196,9 +8038,8 @@
       <c r="D164" t="s">
         <v>253</v>
       </c>
-      <c r="F164" t="str" cm="1">
-        <f t="array" ref="F164">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-06-12 00:00:00</v>
+      <c r="F164" s="1">
+        <v>45455</v>
       </c>
       <c r="G164" t="str" cm="1">
         <f t="array" ref="G164">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -8225,9 +8066,8 @@
       <c r="E165" t="s">
         <v>11</v>
       </c>
-      <c r="F165" t="str" cm="1">
-        <f t="array" ref="F165">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-06-13 00:00:00</v>
+      <c r="F165" s="1">
+        <v>45456</v>
       </c>
       <c r="G165" t="str" cm="1">
         <f t="array" ref="G165">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -8251,9 +8091,8 @@
       <c r="D166" t="s">
         <v>256</v>
       </c>
-      <c r="F166" t="str" cm="1">
-        <f t="array" ref="F166">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-06-14 00:00:00</v>
+      <c r="F166" s="1">
+        <v>45457</v>
       </c>
       <c r="G166" t="str" cm="1">
         <f t="array" ref="G166">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -8280,9 +8119,8 @@
       <c r="E167" t="s">
         <v>11</v>
       </c>
-      <c r="F167" t="str" cm="1">
-        <f t="array" ref="F167">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-06-15 00:00:00</v>
+      <c r="F167" s="1">
+        <v>45458</v>
       </c>
       <c r="G167" t="str" cm="1">
         <f t="array" ref="G167">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -8306,9 +8144,8 @@
       <c r="D168" t="s">
         <v>259</v>
       </c>
-      <c r="F168" t="str" cm="1">
-        <f t="array" ref="F168">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-06-16 00:00:00</v>
+      <c r="F168" s="1">
+        <v>45459</v>
       </c>
       <c r="G168" t="str" cm="1">
         <f t="array" ref="G168">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -8335,9 +8172,8 @@
       <c r="E169" t="s">
         <v>11</v>
       </c>
-      <c r="F169" t="str" cm="1">
-        <f t="array" ref="F169">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-06-17 00:00:00</v>
+      <c r="F169" s="1">
+        <v>45460</v>
       </c>
       <c r="G169" t="str" cm="1">
         <f t="array" ref="G169">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -8361,9 +8197,8 @@
       <c r="D170" t="s">
         <v>262</v>
       </c>
-      <c r="F170" t="str" cm="1">
-        <f t="array" ref="F170">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-06-18 00:00:00</v>
+      <c r="F170" s="1">
+        <v>45461</v>
       </c>
       <c r="G170" t="str" cm="1">
         <f t="array" ref="G170">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -8390,9 +8225,8 @@
       <c r="E171" t="s">
         <v>11</v>
       </c>
-      <c r="F171" t="str" cm="1">
-        <f t="array" ref="F171">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-06-19 00:00:00</v>
+      <c r="F171" s="1">
+        <v>45462</v>
       </c>
       <c r="G171" t="str" cm="1">
         <f t="array" ref="G171">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -8416,9 +8250,8 @@
       <c r="D172" t="s">
         <v>265</v>
       </c>
-      <c r="F172" t="str" cm="1">
-        <f t="array" ref="F172">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-06-20 00:00:00</v>
+      <c r="F172" s="1">
+        <v>45463</v>
       </c>
       <c r="G172" t="str" cm="1">
         <f t="array" ref="G172">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -8445,9 +8278,8 @@
       <c r="E173" t="s">
         <v>11</v>
       </c>
-      <c r="F173" t="str" cm="1">
-        <f t="array" ref="F173">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-06-21 00:00:00</v>
+      <c r="F173" s="1">
+        <v>45464</v>
       </c>
       <c r="G173" t="str" cm="1">
         <f t="array" ref="G173">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -8471,9 +8303,8 @@
       <c r="D174" t="s">
         <v>268</v>
       </c>
-      <c r="F174" t="str" cm="1">
-        <f t="array" ref="F174">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-06-22 00:00:00</v>
+      <c r="F174" s="1">
+        <v>45465</v>
       </c>
       <c r="G174" t="str" cm="1">
         <f t="array" ref="G174">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -8500,9 +8331,8 @@
       <c r="E175" t="s">
         <v>11</v>
       </c>
-      <c r="F175" t="str" cm="1">
-        <f t="array" ref="F175">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-06-23 00:00:00</v>
+      <c r="F175" s="1">
+        <v>45466</v>
       </c>
       <c r="G175" t="str" cm="1">
         <f t="array" ref="G175">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -8526,9 +8356,8 @@
       <c r="D176" t="s">
         <v>271</v>
       </c>
-      <c r="F176" t="str" cm="1">
-        <f t="array" ref="F176">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-06-24 00:00:00</v>
+      <c r="F176" s="1">
+        <v>45467</v>
       </c>
       <c r="G176" t="str" cm="1">
         <f t="array" ref="G176">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -8555,9 +8384,8 @@
       <c r="E177" t="s">
         <v>11</v>
       </c>
-      <c r="F177" t="str" cm="1">
-        <f t="array" ref="F177">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-06-25 00:00:00</v>
+      <c r="F177" s="1">
+        <v>45468</v>
       </c>
       <c r="G177" t="str" cm="1">
         <f t="array" ref="G177">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -8581,9 +8409,8 @@
       <c r="D178" t="s">
         <v>274</v>
       </c>
-      <c r="F178" t="str" cm="1">
-        <f t="array" ref="F178">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-06-26 00:00:00</v>
+      <c r="F178" s="1">
+        <v>45469</v>
       </c>
       <c r="G178" t="str" cm="1">
         <f t="array" ref="G178">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -8610,9 +8437,8 @@
       <c r="E179" t="s">
         <v>11</v>
       </c>
-      <c r="F179" t="str" cm="1">
-        <f t="array" ref="F179">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-06-27 00:00:00</v>
+      <c r="F179" s="1">
+        <v>45470</v>
       </c>
       <c r="G179" t="str" cm="1">
         <f t="array" ref="G179">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -8636,9 +8462,8 @@
       <c r="D180" t="s">
         <v>277</v>
       </c>
-      <c r="F180" t="str" cm="1">
-        <f t="array" ref="F180">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-06-28 00:00:00</v>
+      <c r="F180" s="1">
+        <v>45471</v>
       </c>
       <c r="G180" t="str" cm="1">
         <f t="array" ref="G180">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -8665,9 +8490,8 @@
       <c r="E181" t="s">
         <v>11</v>
       </c>
-      <c r="F181" t="str" cm="1">
-        <f t="array" ref="F181">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-06-29 00:00:00</v>
+      <c r="F181" s="1">
+        <v>45472</v>
       </c>
       <c r="G181" t="str" cm="1">
         <f t="array" ref="G181">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -8691,9 +8515,8 @@
       <c r="D182" t="s">
         <v>280</v>
       </c>
-      <c r="F182" t="str" cm="1">
-        <f t="array" ref="F182">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-06-30 00:00:00</v>
+      <c r="F182" s="1">
+        <v>45473</v>
       </c>
       <c r="G182" t="str" cm="1">
         <f t="array" ref="G182">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -8720,9 +8543,8 @@
       <c r="E183" t="s">
         <v>11</v>
       </c>
-      <c r="F183" t="str" cm="1">
-        <f t="array" ref="F183">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-07-01 00:00:00</v>
+      <c r="F183" s="1">
+        <v>45474</v>
       </c>
       <c r="G183" t="str" cm="1">
         <f t="array" ref="G183">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -8746,9 +8568,8 @@
       <c r="D184" t="s">
         <v>283</v>
       </c>
-      <c r="F184" t="str" cm="1">
-        <f t="array" ref="F184">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-07-02 00:00:00</v>
+      <c r="F184" s="1">
+        <v>45475</v>
       </c>
       <c r="G184" t="str" cm="1">
         <f t="array" ref="G184">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -8775,9 +8596,8 @@
       <c r="E185" t="s">
         <v>11</v>
       </c>
-      <c r="F185" t="str" cm="1">
-        <f t="array" ref="F185">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-07-03 00:00:00</v>
+      <c r="F185" s="1">
+        <v>45476</v>
       </c>
       <c r="G185" t="str" cm="1">
         <f t="array" ref="G185">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -8801,9 +8621,8 @@
       <c r="D186" t="s">
         <v>286</v>
       </c>
-      <c r="F186" t="str" cm="1">
-        <f t="array" ref="F186">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-07-04 00:00:00</v>
+      <c r="F186" s="1">
+        <v>45477</v>
       </c>
       <c r="G186" t="str" cm="1">
         <f t="array" ref="G186">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -8830,9 +8649,8 @@
       <c r="E187" t="s">
         <v>11</v>
       </c>
-      <c r="F187" t="str" cm="1">
-        <f t="array" ref="F187">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-07-05 00:00:00</v>
+      <c r="F187" s="1">
+        <v>45478</v>
       </c>
       <c r="G187" t="str" cm="1">
         <f t="array" ref="G187">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -8856,9 +8674,8 @@
       <c r="D188" t="s">
         <v>289</v>
       </c>
-      <c r="F188" t="str" cm="1">
-        <f t="array" ref="F188">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-07-06 00:00:00</v>
+      <c r="F188" s="1">
+        <v>45479</v>
       </c>
       <c r="G188" t="str" cm="1">
         <f t="array" ref="G188">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -8885,9 +8702,8 @@
       <c r="E189" t="s">
         <v>11</v>
       </c>
-      <c r="F189" t="str" cm="1">
-        <f t="array" ref="F189">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-07-07 00:00:00</v>
+      <c r="F189" s="1">
+        <v>45480</v>
       </c>
       <c r="G189" t="str" cm="1">
         <f t="array" ref="G189">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -8911,9 +8727,8 @@
       <c r="D190" t="s">
         <v>292</v>
       </c>
-      <c r="F190" t="str" cm="1">
-        <f t="array" ref="F190">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-07-08 00:00:00</v>
+      <c r="F190" s="1">
+        <v>45481</v>
       </c>
       <c r="G190" t="str" cm="1">
         <f t="array" ref="G190">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -8940,9 +8755,8 @@
       <c r="E191" t="s">
         <v>11</v>
       </c>
-      <c r="F191" t="str" cm="1">
-        <f t="array" ref="F191">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-07-09 00:00:00</v>
+      <c r="F191" s="1">
+        <v>45482</v>
       </c>
       <c r="G191" t="str" cm="1">
         <f t="array" ref="G191">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -8966,9 +8780,8 @@
       <c r="D192" t="s">
         <v>295</v>
       </c>
-      <c r="F192" t="str" cm="1">
-        <f t="array" ref="F192">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-07-10 00:00:00</v>
+      <c r="F192" s="1">
+        <v>45483</v>
       </c>
       <c r="G192" t="str" cm="1">
         <f t="array" ref="G192">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -8995,9 +8808,8 @@
       <c r="E193" t="s">
         <v>11</v>
       </c>
-      <c r="F193" t="str" cm="1">
-        <f t="array" ref="F193">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-07-11 00:00:00</v>
+      <c r="F193" s="1">
+        <v>45484</v>
       </c>
       <c r="G193" t="str" cm="1">
         <f t="array" ref="G193">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -9021,9 +8833,8 @@
       <c r="D194" t="s">
         <v>298</v>
       </c>
-      <c r="F194" t="str" cm="1">
-        <f t="array" ref="F194">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-07-12 00:00:00</v>
+      <c r="F194" s="1">
+        <v>45485</v>
       </c>
       <c r="G194" t="str" cm="1">
         <f t="array" ref="G194">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -9050,9 +8861,8 @@
       <c r="E195" t="s">
         <v>11</v>
       </c>
-      <c r="F195" t="str" cm="1">
-        <f t="array" ref="F195">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-07-13 00:00:00</v>
+      <c r="F195" s="1">
+        <v>45486</v>
       </c>
       <c r="G195" t="str" cm="1">
         <f t="array" ref="G195">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -9076,9 +8886,8 @@
       <c r="D196" t="s">
         <v>301</v>
       </c>
-      <c r="F196" t="str" cm="1">
-        <f t="array" ref="F196">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-07-14 00:00:00</v>
+      <c r="F196" s="1">
+        <v>45487</v>
       </c>
       <c r="G196" t="str" cm="1">
         <f t="array" ref="G196">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -9105,9 +8914,8 @@
       <c r="E197" t="s">
         <v>11</v>
       </c>
-      <c r="F197" t="str" cm="1">
-        <f t="array" ref="F197">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-07-15 00:00:00</v>
+      <c r="F197" s="1">
+        <v>45488</v>
       </c>
       <c r="G197" t="str" cm="1">
         <f t="array" ref="G197">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -9131,9 +8939,8 @@
       <c r="D198" t="s">
         <v>304</v>
       </c>
-      <c r="F198" t="str" cm="1">
-        <f t="array" ref="F198">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-07-16 00:00:00</v>
+      <c r="F198" s="1">
+        <v>45489</v>
       </c>
       <c r="G198" t="str" cm="1">
         <f t="array" ref="G198">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -9160,9 +8967,8 @@
       <c r="E199" t="s">
         <v>11</v>
       </c>
-      <c r="F199" t="str" cm="1">
-        <f t="array" ref="F199">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-07-17 00:00:00</v>
+      <c r="F199" s="1">
+        <v>45490</v>
       </c>
       <c r="G199" t="str" cm="1">
         <f t="array" ref="G199">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -9186,9 +8992,8 @@
       <c r="D200" t="s">
         <v>307</v>
       </c>
-      <c r="F200" t="str" cm="1">
-        <f t="array" ref="F200">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-07-18 00:00:00</v>
+      <c r="F200" s="1">
+        <v>45491</v>
       </c>
       <c r="G200" t="str" cm="1">
         <f t="array" ref="G200">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -9215,9 +9020,8 @@
       <c r="E201" t="s">
         <v>11</v>
       </c>
-      <c r="F201" t="str" cm="1">
-        <f t="array" ref="F201">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-07-19 00:00:00</v>
+      <c r="F201" s="1">
+        <v>45492</v>
       </c>
       <c r="G201" t="str" cm="1">
         <f t="array" ref="G201">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -9241,9 +9045,8 @@
       <c r="D202" t="s">
         <v>310</v>
       </c>
-      <c r="F202" t="str" cm="1">
-        <f t="array" ref="F202">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-07-20 00:00:00</v>
+      <c r="F202" s="1">
+        <v>45493</v>
       </c>
       <c r="G202" t="str" cm="1">
         <f t="array" ref="G202">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -9270,9 +9073,8 @@
       <c r="E203" t="s">
         <v>11</v>
       </c>
-      <c r="F203" t="str" cm="1">
-        <f t="array" ref="F203">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-07-21 00:00:00</v>
+      <c r="F203" s="1">
+        <v>45494</v>
       </c>
       <c r="G203" t="str" cm="1">
         <f t="array" ref="G203">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -9296,9 +9098,8 @@
       <c r="D204" t="s">
         <v>313</v>
       </c>
-      <c r="F204" t="str" cm="1">
-        <f t="array" ref="F204">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-07-22 00:00:00</v>
+      <c r="F204" s="1">
+        <v>45495</v>
       </c>
       <c r="G204" t="str" cm="1">
         <f t="array" ref="G204">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -9325,9 +9126,8 @@
       <c r="E205" t="s">
         <v>11</v>
       </c>
-      <c r="F205" t="str" cm="1">
-        <f t="array" ref="F205">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-07-23 00:00:00</v>
+      <c r="F205" s="1">
+        <v>45496</v>
       </c>
       <c r="G205" t="str" cm="1">
         <f t="array" ref="G205">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -9351,9 +9151,8 @@
       <c r="D206" t="s">
         <v>316</v>
       </c>
-      <c r="F206" t="str" cm="1">
-        <f t="array" ref="F206">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-07-24 00:00:00</v>
+      <c r="F206" s="1">
+        <v>45497</v>
       </c>
       <c r="G206" t="str" cm="1">
         <f t="array" ref="G206">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -9380,9 +9179,8 @@
       <c r="E207" t="s">
         <v>11</v>
       </c>
-      <c r="F207" t="str" cm="1">
-        <f t="array" ref="F207">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-07-25 00:00:00</v>
+      <c r="F207" s="1">
+        <v>45498</v>
       </c>
       <c r="G207" t="str" cm="1">
         <f t="array" ref="G207">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -9406,9 +9204,8 @@
       <c r="D208" t="s">
         <v>319</v>
       </c>
-      <c r="F208" t="str" cm="1">
-        <f t="array" ref="F208">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-07-26 00:00:00</v>
+      <c r="F208" s="1">
+        <v>45499</v>
       </c>
       <c r="G208" t="str" cm="1">
         <f t="array" ref="G208">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -9435,9 +9232,8 @@
       <c r="E209" t="s">
         <v>11</v>
       </c>
-      <c r="F209" t="str" cm="1">
-        <f t="array" ref="F209">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-07-27 00:00:00</v>
+      <c r="F209" s="1">
+        <v>45500</v>
       </c>
       <c r="G209" t="str" cm="1">
         <f t="array" ref="G209">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -9461,9 +9257,8 @@
       <c r="D210" t="s">
         <v>322</v>
       </c>
-      <c r="F210" t="str" cm="1">
-        <f t="array" ref="F210">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-07-28 00:00:00</v>
+      <c r="F210" s="1">
+        <v>45501</v>
       </c>
       <c r="G210" t="str" cm="1">
         <f t="array" ref="G210">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -9490,9 +9285,8 @@
       <c r="E211" t="s">
         <v>11</v>
       </c>
-      <c r="F211" t="str" cm="1">
-        <f t="array" ref="F211">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-07-29 00:00:00</v>
+      <c r="F211" s="1">
+        <v>45502</v>
       </c>
       <c r="G211" t="str" cm="1">
         <f t="array" ref="G211">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -9516,9 +9310,8 @@
       <c r="D212" t="s">
         <v>325</v>
       </c>
-      <c r="F212" t="str" cm="1">
-        <f t="array" ref="F212">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-07-30 00:00:00</v>
+      <c r="F212" s="1">
+        <v>45503</v>
       </c>
       <c r="G212" t="str" cm="1">
         <f t="array" ref="G212">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -9545,9 +9338,8 @@
       <c r="E213" t="s">
         <v>11</v>
       </c>
-      <c r="F213" t="str" cm="1">
-        <f t="array" ref="F213">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-07-31 00:00:00</v>
+      <c r="F213" s="1">
+        <v>45504</v>
       </c>
       <c r="G213" t="str" cm="1">
         <f t="array" ref="G213">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -9571,9 +9363,8 @@
       <c r="D214" t="s">
         <v>139</v>
       </c>
-      <c r="F214" t="str" cm="1">
-        <f t="array" ref="F214">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-08-01 00:00:00</v>
+      <c r="F214" s="1">
+        <v>45505</v>
       </c>
       <c r="G214" t="str" cm="1">
         <f t="array" ref="G214">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -9600,9 +9391,8 @@
       <c r="E215" t="s">
         <v>11</v>
       </c>
-      <c r="F215" t="str" cm="1">
-        <f t="array" ref="F215">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-08-02 00:00:00</v>
+      <c r="F215" s="1">
+        <v>45506</v>
       </c>
       <c r="G215" t="str" cm="1">
         <f t="array" ref="G215">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -9626,9 +9416,8 @@
       <c r="D216" t="s">
         <v>330</v>
       </c>
-      <c r="F216" t="str" cm="1">
-        <f t="array" ref="F216">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-08-03 00:00:00</v>
+      <c r="F216" s="1">
+        <v>45507</v>
       </c>
       <c r="G216" t="str" cm="1">
         <f t="array" ref="G216">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -9655,9 +9444,8 @@
       <c r="E217" t="s">
         <v>11</v>
       </c>
-      <c r="F217" t="str" cm="1">
-        <f t="array" ref="F217">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-08-04 00:00:00</v>
+      <c r="F217" s="1">
+        <v>45508</v>
       </c>
       <c r="G217" t="str" cm="1">
         <f t="array" ref="G217">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -9681,9 +9469,8 @@
       <c r="D218" t="s">
         <v>333</v>
       </c>
-      <c r="F218" t="str" cm="1">
-        <f t="array" ref="F218">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-08-05 00:00:00</v>
+      <c r="F218" s="1">
+        <v>45509</v>
       </c>
       <c r="G218" t="str" cm="1">
         <f t="array" ref="G218">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -9710,9 +9497,8 @@
       <c r="E219" t="s">
         <v>11</v>
       </c>
-      <c r="F219" t="str" cm="1">
-        <f t="array" ref="F219">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-08-06 00:00:00</v>
+      <c r="F219" s="1">
+        <v>45510</v>
       </c>
       <c r="G219" t="str" cm="1">
         <f t="array" ref="G219">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -9736,9 +9522,8 @@
       <c r="D220" t="s">
         <v>336</v>
       </c>
-      <c r="F220" t="str" cm="1">
-        <f t="array" ref="F220">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-08-07 00:00:00</v>
+      <c r="F220" s="1">
+        <v>45511</v>
       </c>
       <c r="G220" t="str" cm="1">
         <f t="array" ref="G220">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -9765,9 +9550,8 @@
       <c r="E221" t="s">
         <v>11</v>
       </c>
-      <c r="F221" t="str" cm="1">
-        <f t="array" ref="F221">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-08-08 00:00:00</v>
+      <c r="F221" s="1">
+        <v>45512</v>
       </c>
       <c r="G221" t="str" cm="1">
         <f t="array" ref="G221">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -9791,9 +9575,8 @@
       <c r="D222" t="s">
         <v>339</v>
       </c>
-      <c r="F222" t="str" cm="1">
-        <f t="array" ref="F222">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-08-09 00:00:00</v>
+      <c r="F222" s="1">
+        <v>45513</v>
       </c>
       <c r="G222" t="str" cm="1">
         <f t="array" ref="G222">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -9820,9 +9603,8 @@
       <c r="E223" t="s">
         <v>11</v>
       </c>
-      <c r="F223" t="str" cm="1">
-        <f t="array" ref="F223">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-08-10 00:00:00</v>
+      <c r="F223" s="1">
+        <v>45514</v>
       </c>
       <c r="G223" t="str" cm="1">
         <f t="array" ref="G223">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -9846,9 +9628,8 @@
       <c r="D224" t="s">
         <v>217</v>
       </c>
-      <c r="F224" t="str" cm="1">
-        <f t="array" ref="F224">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-08-11 00:00:00</v>
+      <c r="F224" s="1">
+        <v>45515</v>
       </c>
       <c r="G224" t="str" cm="1">
         <f t="array" ref="G224">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -9875,9 +9656,8 @@
       <c r="E225" t="s">
         <v>11</v>
       </c>
-      <c r="F225" t="str" cm="1">
-        <f t="array" ref="F225">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-08-12 00:00:00</v>
+      <c r="F225" s="1">
+        <v>45516</v>
       </c>
       <c r="G225" t="str" cm="1">
         <f t="array" ref="G225">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -9901,9 +9681,8 @@
       <c r="D226" t="s">
         <v>344</v>
       </c>
-      <c r="F226" t="str" cm="1">
-        <f t="array" ref="F226">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-08-13 00:00:00</v>
+      <c r="F226" s="1">
+        <v>45517</v>
       </c>
       <c r="G226" t="str" cm="1">
         <f t="array" ref="G226">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -9930,9 +9709,8 @@
       <c r="E227" t="s">
         <v>11</v>
       </c>
-      <c r="F227" t="str" cm="1">
-        <f t="array" ref="F227">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-08-14 00:00:00</v>
+      <c r="F227" s="1">
+        <v>45518</v>
       </c>
       <c r="G227" t="str" cm="1">
         <f t="array" ref="G227">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -9956,9 +9734,8 @@
       <c r="D228" t="s">
         <v>347</v>
       </c>
-      <c r="F228" t="str" cm="1">
-        <f t="array" ref="F228">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-08-15 00:00:00</v>
+      <c r="F228" s="1">
+        <v>45519</v>
       </c>
       <c r="G228" t="str" cm="1">
         <f t="array" ref="G228">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -9985,9 +9762,8 @@
       <c r="E229" t="s">
         <v>11</v>
       </c>
-      <c r="F229" t="str" cm="1">
-        <f t="array" ref="F229">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-08-16 00:00:00</v>
+      <c r="F229" s="1">
+        <v>45520</v>
       </c>
       <c r="G229" t="str" cm="1">
         <f t="array" ref="G229">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -10011,9 +9787,8 @@
       <c r="D230" t="s">
         <v>350</v>
       </c>
-      <c r="F230" t="str" cm="1">
-        <f t="array" ref="F230">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-08-17 00:00:00</v>
+      <c r="F230" s="1">
+        <v>45521</v>
       </c>
       <c r="G230" t="str" cm="1">
         <f t="array" ref="G230">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -10040,9 +9815,8 @@
       <c r="E231" t="s">
         <v>11</v>
       </c>
-      <c r="F231" t="str" cm="1">
-        <f t="array" ref="F231">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-08-18 00:00:00</v>
+      <c r="F231" s="1">
+        <v>45522</v>
       </c>
       <c r="G231" t="str" cm="1">
         <f t="array" ref="G231">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -10066,9 +9840,8 @@
       <c r="D232" t="s">
         <v>353</v>
       </c>
-      <c r="F232" t="str" cm="1">
-        <f t="array" ref="F232">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-08-19 00:00:00</v>
+      <c r="F232" s="1">
+        <v>45523</v>
       </c>
       <c r="G232" t="str" cm="1">
         <f t="array" ref="G232">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -10095,9 +9868,8 @@
       <c r="E233" t="s">
         <v>11</v>
       </c>
-      <c r="F233" t="str" cm="1">
-        <f t="array" ref="F233">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-08-20 00:00:00</v>
+      <c r="F233" s="1">
+        <v>45524</v>
       </c>
       <c r="G233" t="str" cm="1">
         <f t="array" ref="G233">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -10121,9 +9893,8 @@
       <c r="D234" t="s">
         <v>356</v>
       </c>
-      <c r="F234" t="str" cm="1">
-        <f t="array" ref="F234">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-08-21 00:00:00</v>
+      <c r="F234" s="1">
+        <v>45525</v>
       </c>
       <c r="G234" t="str" cm="1">
         <f t="array" ref="G234">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -10150,9 +9921,8 @@
       <c r="E235" t="s">
         <v>11</v>
       </c>
-      <c r="F235" t="str" cm="1">
-        <f t="array" ref="F235">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-08-22 00:00:00</v>
+      <c r="F235" s="1">
+        <v>45526</v>
       </c>
       <c r="G235" t="str" cm="1">
         <f t="array" ref="G235">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -10176,9 +9946,8 @@
       <c r="D236" t="s">
         <v>359</v>
       </c>
-      <c r="F236" t="str" cm="1">
-        <f t="array" ref="F236">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-08-23 00:00:00</v>
+      <c r="F236" s="1">
+        <v>45527</v>
       </c>
       <c r="G236" t="str" cm="1">
         <f t="array" ref="G236">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -10205,9 +9974,8 @@
       <c r="E237" t="s">
         <v>11</v>
       </c>
-      <c r="F237" t="str" cm="1">
-        <f t="array" ref="F237">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-08-24 00:00:00</v>
+      <c r="F237" s="1">
+        <v>45528</v>
       </c>
       <c r="G237" t="str" cm="1">
         <f t="array" ref="G237">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -10231,9 +9999,8 @@
       <c r="D238" t="s">
         <v>362</v>
       </c>
-      <c r="F238" t="str" cm="1">
-        <f t="array" ref="F238">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-08-25 00:00:00</v>
+      <c r="F238" s="1">
+        <v>45529</v>
       </c>
       <c r="G238" t="str" cm="1">
         <f t="array" ref="G238">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -10260,9 +10027,8 @@
       <c r="E239" t="s">
         <v>11</v>
       </c>
-      <c r="F239" t="str" cm="1">
-        <f t="array" ref="F239">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-08-26 00:00:00</v>
+      <c r="F239" s="1">
+        <v>45530</v>
       </c>
       <c r="G239" t="str" cm="1">
         <f t="array" ref="G239">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -10286,9 +10052,8 @@
       <c r="D240" t="s">
         <v>365</v>
       </c>
-      <c r="F240" t="str" cm="1">
-        <f t="array" ref="F240">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-08-27 00:00:00</v>
+      <c r="F240" s="1">
+        <v>45531</v>
       </c>
       <c r="G240" t="str" cm="1">
         <f t="array" ref="G240">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -10315,9 +10080,8 @@
       <c r="E241" t="s">
         <v>11</v>
       </c>
-      <c r="F241" t="str" cm="1">
-        <f t="array" ref="F241">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-08-28 00:00:00</v>
+      <c r="F241" s="1">
+        <v>45532</v>
       </c>
       <c r="G241" t="str" cm="1">
         <f t="array" ref="G241">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -10341,9 +10105,8 @@
       <c r="D242" t="s">
         <v>368</v>
       </c>
-      <c r="F242" t="str" cm="1">
-        <f t="array" ref="F242">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-08-29 00:00:00</v>
+      <c r="F242" s="1">
+        <v>45533</v>
       </c>
       <c r="G242" t="str" cm="1">
         <f t="array" ref="G242">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -10370,9 +10133,8 @@
       <c r="E243" t="s">
         <v>11</v>
       </c>
-      <c r="F243" t="str" cm="1">
-        <f t="array" ref="F243">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-08-30 00:00:00</v>
+      <c r="F243" s="1">
+        <v>45534</v>
       </c>
       <c r="G243" t="str" cm="1">
         <f t="array" ref="G243">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -10396,9 +10158,8 @@
       <c r="D244" t="s">
         <v>371</v>
       </c>
-      <c r="F244" t="str" cm="1">
-        <f t="array" ref="F244">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-08-31 00:00:00</v>
+      <c r="F244" s="1">
+        <v>45535</v>
       </c>
       <c r="G244" t="str" cm="1">
         <f t="array" ref="G244">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -10425,9 +10186,8 @@
       <c r="E245" t="s">
         <v>11</v>
       </c>
-      <c r="F245" t="str" cm="1">
-        <f t="array" ref="F245">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-09-01 00:00:00</v>
+      <c r="F245" s="1">
+        <v>45536</v>
       </c>
       <c r="G245" t="str" cm="1">
         <f t="array" ref="G245">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -10451,9 +10211,8 @@
       <c r="D246" t="s">
         <v>374</v>
       </c>
-      <c r="F246" t="str" cm="1">
-        <f t="array" ref="F246">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-09-02 00:00:00</v>
+      <c r="F246" s="1">
+        <v>45537</v>
       </c>
       <c r="G246" t="str" cm="1">
         <f t="array" ref="G246">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -10480,9 +10239,8 @@
       <c r="E247" t="s">
         <v>11</v>
       </c>
-      <c r="F247" t="str" cm="1">
-        <f t="array" ref="F247">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-09-03 00:00:00</v>
+      <c r="F247" s="1">
+        <v>45538</v>
       </c>
       <c r="G247" t="str" cm="1">
         <f t="array" ref="G247">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -10506,9 +10264,8 @@
       <c r="D248" t="s">
         <v>377</v>
       </c>
-      <c r="F248" t="str" cm="1">
-        <f t="array" ref="F248">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-09-04 00:00:00</v>
+      <c r="F248" s="1">
+        <v>45539</v>
       </c>
       <c r="G248" t="str" cm="1">
         <f t="array" ref="G248">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -10535,9 +10292,8 @@
       <c r="E249" t="s">
         <v>11</v>
       </c>
-      <c r="F249" t="str" cm="1">
-        <f t="array" ref="F249">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-09-05 00:00:00</v>
+      <c r="F249" s="1">
+        <v>45540</v>
       </c>
       <c r="G249" t="str" cm="1">
         <f t="array" ref="G249">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -10561,9 +10317,8 @@
       <c r="D250" t="s">
         <v>380</v>
       </c>
-      <c r="F250" t="str" cm="1">
-        <f t="array" ref="F250">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-09-06 00:00:00</v>
+      <c r="F250" s="1">
+        <v>45541</v>
       </c>
       <c r="G250" t="str" cm="1">
         <f t="array" ref="G250">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -10590,9 +10345,8 @@
       <c r="E251" t="s">
         <v>11</v>
       </c>
-      <c r="F251" t="str" cm="1">
-        <f t="array" ref="F251">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-09-07 00:00:00</v>
+      <c r="F251" s="1">
+        <v>45542</v>
       </c>
       <c r="G251" t="str" cm="1">
         <f t="array" ref="G251">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -10616,9 +10370,8 @@
       <c r="D252" t="s">
         <v>383</v>
       </c>
-      <c r="F252" t="str" cm="1">
-        <f t="array" ref="F252">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-09-08 00:00:00</v>
+      <c r="F252" s="1">
+        <v>45543</v>
       </c>
       <c r="G252" t="str" cm="1">
         <f t="array" ref="G252">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -10645,9 +10398,8 @@
       <c r="E253" t="s">
         <v>11</v>
       </c>
-      <c r="F253" t="str" cm="1">
-        <f t="array" ref="F253">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-09-09 00:00:00</v>
+      <c r="F253" s="1">
+        <v>45544</v>
       </c>
       <c r="G253" t="str" cm="1">
         <f t="array" ref="G253">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -10671,9 +10423,8 @@
       <c r="D254" t="s">
         <v>386</v>
       </c>
-      <c r="F254" t="str" cm="1">
-        <f t="array" ref="F254">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-09-10 00:00:00</v>
+      <c r="F254" s="1">
+        <v>45545</v>
       </c>
       <c r="G254" t="str" cm="1">
         <f t="array" ref="G254">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -10700,9 +10451,8 @@
       <c r="E255" t="s">
         <v>11</v>
       </c>
-      <c r="F255" t="str" cm="1">
-        <f t="array" ref="F255">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-09-11 00:00:00</v>
+      <c r="F255" s="1">
+        <v>45546</v>
       </c>
       <c r="G255" t="str" cm="1">
         <f t="array" ref="G255">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -10726,9 +10476,8 @@
       <c r="D256" t="s">
         <v>389</v>
       </c>
-      <c r="F256" t="str" cm="1">
-        <f t="array" ref="F256">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-09-12 00:00:00</v>
+      <c r="F256" s="1">
+        <v>45547</v>
       </c>
       <c r="G256" t="str" cm="1">
         <f t="array" ref="G256">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -10755,9 +10504,8 @@
       <c r="E257" t="s">
         <v>11</v>
       </c>
-      <c r="F257" t="str" cm="1">
-        <f t="array" ref="F257">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-09-13 00:00:00</v>
+      <c r="F257" s="1">
+        <v>45548</v>
       </c>
       <c r="G257" t="str" cm="1">
         <f t="array" ref="G257">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -10781,9 +10529,8 @@
       <c r="D258" t="s">
         <v>392</v>
       </c>
-      <c r="F258" t="str" cm="1">
-        <f t="array" ref="F258">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-09-14 00:00:00</v>
+      <c r="F258" s="1">
+        <v>45549</v>
       </c>
       <c r="G258" t="str" cm="1">
         <f t="array" ref="G258">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -10810,9 +10557,8 @@
       <c r="E259" t="s">
         <v>11</v>
       </c>
-      <c r="F259" t="str" cm="1">
-        <f t="array" ref="F259">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-09-15 00:00:00</v>
+      <c r="F259" s="1">
+        <v>45550</v>
       </c>
       <c r="G259" t="str" cm="1">
         <f t="array" ref="G259">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -10836,9 +10582,8 @@
       <c r="D260" t="s">
         <v>395</v>
       </c>
-      <c r="F260" t="str" cm="1">
-        <f t="array" ref="F260">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-09-16 00:00:00</v>
+      <c r="F260" s="1">
+        <v>45551</v>
       </c>
       <c r="G260" t="str" cm="1">
         <f t="array" ref="G260">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -10865,9 +10610,8 @@
       <c r="E261" t="s">
         <v>11</v>
       </c>
-      <c r="F261" t="str" cm="1">
-        <f t="array" ref="F261">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-09-17 00:00:00</v>
+      <c r="F261" s="1">
+        <v>45552</v>
       </c>
       <c r="G261" t="str" cm="1">
         <f t="array" ref="G261">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -10891,9 +10635,8 @@
       <c r="D262" t="s">
         <v>398</v>
       </c>
-      <c r="F262" t="str" cm="1">
-        <f t="array" ref="F262">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-09-18 00:00:00</v>
+      <c r="F262" s="1">
+        <v>45553</v>
       </c>
       <c r="G262" t="str" cm="1">
         <f t="array" ref="G262">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -10920,9 +10663,8 @@
       <c r="E263" t="s">
         <v>11</v>
       </c>
-      <c r="F263" t="str" cm="1">
-        <f t="array" ref="F263">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-09-19 00:00:00</v>
+      <c r="F263" s="1">
+        <v>45554</v>
       </c>
       <c r="G263" t="str" cm="1">
         <f t="array" ref="G263">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -10946,9 +10688,8 @@
       <c r="D264" t="s">
         <v>401</v>
       </c>
-      <c r="F264" t="str" cm="1">
-        <f t="array" ref="F264">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-09-20 00:00:00</v>
+      <c r="F264" s="1">
+        <v>45555</v>
       </c>
       <c r="G264" t="str" cm="1">
         <f t="array" ref="G264">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -10975,9 +10716,8 @@
       <c r="E265" t="s">
         <v>11</v>
       </c>
-      <c r="F265" t="str" cm="1">
-        <f t="array" ref="F265">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-09-21 00:00:00</v>
+      <c r="F265" s="1">
+        <v>45556</v>
       </c>
       <c r="G265" t="str" cm="1">
         <f t="array" ref="G265">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -11001,9 +10741,8 @@
       <c r="D266" t="s">
         <v>404</v>
       </c>
-      <c r="F266" t="str" cm="1">
-        <f t="array" ref="F266">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-09-22 00:00:00</v>
+      <c r="F266" s="1">
+        <v>45557</v>
       </c>
       <c r="G266" t="str" cm="1">
         <f t="array" ref="G266">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -11030,9 +10769,8 @@
       <c r="E267" t="s">
         <v>11</v>
       </c>
-      <c r="F267" t="str" cm="1">
-        <f t="array" ref="F267">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-09-23 00:00:00</v>
+      <c r="F267" s="1">
+        <v>45558</v>
       </c>
       <c r="G267" t="str" cm="1">
         <f t="array" ref="G267">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -11056,9 +10794,8 @@
       <c r="D268" t="s">
         <v>407</v>
       </c>
-      <c r="F268" t="str" cm="1">
-        <f t="array" ref="F268">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-09-24 00:00:00</v>
+      <c r="F268" s="1">
+        <v>45559</v>
       </c>
       <c r="G268" t="str" cm="1">
         <f t="array" ref="G268">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -11085,9 +10822,8 @@
       <c r="E269" t="s">
         <v>11</v>
       </c>
-      <c r="F269" t="str" cm="1">
-        <f t="array" ref="F269">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-09-25 00:00:00</v>
+      <c r="F269" s="1">
+        <v>45560</v>
       </c>
       <c r="G269" t="str" cm="1">
         <f t="array" ref="G269">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -11111,9 +10847,8 @@
       <c r="D270" t="s">
         <v>410</v>
       </c>
-      <c r="F270" t="str" cm="1">
-        <f t="array" ref="F270">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-09-26 00:00:00</v>
+      <c r="F270" s="1">
+        <v>45561</v>
       </c>
       <c r="G270" t="str" cm="1">
         <f t="array" ref="G270">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -11140,9 +10875,8 @@
       <c r="E271" t="s">
         <v>11</v>
       </c>
-      <c r="F271" t="str" cm="1">
-        <f t="array" ref="F271">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-09-27 00:00:00</v>
+      <c r="F271" s="1">
+        <v>45562</v>
       </c>
       <c r="G271" t="str" cm="1">
         <f t="array" ref="G271">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -11166,9 +10900,8 @@
       <c r="D272" t="s">
         <v>413</v>
       </c>
-      <c r="F272" t="str" cm="1">
-        <f t="array" ref="F272">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-09-28 00:00:00</v>
+      <c r="F272" s="1">
+        <v>45563</v>
       </c>
       <c r="G272" t="str" cm="1">
         <f t="array" ref="G272">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -11195,9 +10928,8 @@
       <c r="E273" t="s">
         <v>11</v>
       </c>
-      <c r="F273" t="str" cm="1">
-        <f t="array" ref="F273">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-09-29 00:00:00</v>
+      <c r="F273" s="1">
+        <v>45564</v>
       </c>
       <c r="G273" t="str" cm="1">
         <f t="array" ref="G273">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -11221,9 +10953,8 @@
       <c r="D274" t="s">
         <v>416</v>
       </c>
-      <c r="F274" t="str" cm="1">
-        <f t="array" ref="F274">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-09-30 00:00:00</v>
+      <c r="F274" s="1">
+        <v>45565</v>
       </c>
       <c r="G274" t="str" cm="1">
         <f t="array" ref="G274">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -11250,9 +10981,8 @@
       <c r="E275" t="s">
         <v>11</v>
       </c>
-      <c r="F275" t="str" cm="1">
-        <f t="array" ref="F275">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-10-01 00:00:00</v>
+      <c r="F275" s="1">
+        <v>45566</v>
       </c>
       <c r="G275" t="str" cm="1">
         <f t="array" ref="G275">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -11276,9 +11006,8 @@
       <c r="D276" t="s">
         <v>419</v>
       </c>
-      <c r="F276" t="str" cm="1">
-        <f t="array" ref="F276">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-10-02 00:00:00</v>
+      <c r="F276" s="1">
+        <v>45567</v>
       </c>
       <c r="G276" t="str" cm="1">
         <f t="array" ref="G276">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -11305,9 +11034,8 @@
       <c r="E277" t="s">
         <v>11</v>
       </c>
-      <c r="F277" t="str" cm="1">
-        <f t="array" ref="F277">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-10-03 00:00:00</v>
+      <c r="F277" s="1">
+        <v>45568</v>
       </c>
       <c r="G277" t="str" cm="1">
         <f t="array" ref="G277">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -11331,9 +11059,8 @@
       <c r="D278" t="s">
         <v>422</v>
       </c>
-      <c r="F278" t="str" cm="1">
-        <f t="array" ref="F278">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-10-04 00:00:00</v>
+      <c r="F278" s="1">
+        <v>45569</v>
       </c>
       <c r="G278" t="str" cm="1">
         <f t="array" ref="G278">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -11360,9 +11087,8 @@
       <c r="E279" t="s">
         <v>11</v>
       </c>
-      <c r="F279" t="str" cm="1">
-        <f t="array" ref="F279">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-10-05 00:00:00</v>
+      <c r="F279" s="1">
+        <v>45570</v>
       </c>
       <c r="G279" t="str" cm="1">
         <f t="array" ref="G279">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -11386,9 +11112,8 @@
       <c r="D280" t="s">
         <v>425</v>
       </c>
-      <c r="F280" t="str" cm="1">
-        <f t="array" ref="F280">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-10-06 00:00:00</v>
+      <c r="F280" s="1">
+        <v>45571</v>
       </c>
       <c r="G280" t="str" cm="1">
         <f t="array" ref="G280">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -11415,9 +11140,8 @@
       <c r="E281" t="s">
         <v>11</v>
       </c>
-      <c r="F281" t="str" cm="1">
-        <f t="array" ref="F281">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-10-07 00:00:00</v>
+      <c r="F281" s="1">
+        <v>45572</v>
       </c>
       <c r="G281" t="str" cm="1">
         <f t="array" ref="G281">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -11441,9 +11165,8 @@
       <c r="D282" t="s">
         <v>427</v>
       </c>
-      <c r="F282" t="str" cm="1">
-        <f t="array" ref="F282">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-10-08 00:00:00</v>
+      <c r="F282" s="1">
+        <v>45573</v>
       </c>
       <c r="G282" t="str" cm="1">
         <f t="array" ref="G282">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -11470,9 +11193,8 @@
       <c r="E283" t="s">
         <v>11</v>
       </c>
-      <c r="F283" t="str" cm="1">
-        <f t="array" ref="F283">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-10-09 00:00:00</v>
+      <c r="F283" s="1">
+        <v>45574</v>
       </c>
       <c r="G283" t="str" cm="1">
         <f t="array" ref="G283">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -11496,9 +11218,8 @@
       <c r="D284" t="s">
         <v>430</v>
       </c>
-      <c r="F284" t="str" cm="1">
-        <f t="array" ref="F284">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-10-10 00:00:00</v>
+      <c r="F284" s="1">
+        <v>45575</v>
       </c>
       <c r="G284" t="str" cm="1">
         <f t="array" ref="G284">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -11525,9 +11246,8 @@
       <c r="E285" t="s">
         <v>11</v>
       </c>
-      <c r="F285" t="str" cm="1">
-        <f t="array" ref="F285">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-10-11 00:00:00</v>
+      <c r="F285" s="1">
+        <v>45576</v>
       </c>
       <c r="G285" t="str" cm="1">
         <f t="array" ref="G285">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -11551,9 +11271,8 @@
       <c r="D286" t="s">
         <v>432</v>
       </c>
-      <c r="F286" t="str" cm="1">
-        <f t="array" ref="F286">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-10-12 00:00:00</v>
+      <c r="F286" s="1">
+        <v>45577</v>
       </c>
       <c r="G286" t="str" cm="1">
         <f t="array" ref="G286">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -11580,9 +11299,8 @@
       <c r="E287" t="s">
         <v>11</v>
       </c>
-      <c r="F287" t="str" cm="1">
-        <f t="array" ref="F287">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-10-13 00:00:00</v>
+      <c r="F287" s="1">
+        <v>45578</v>
       </c>
       <c r="G287" t="str" cm="1">
         <f t="array" ref="G287">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -11606,9 +11324,8 @@
       <c r="D288" t="s">
         <v>434</v>
       </c>
-      <c r="F288" t="str" cm="1">
-        <f t="array" ref="F288">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-10-14 00:00:00</v>
+      <c r="F288" s="1">
+        <v>45579</v>
       </c>
       <c r="G288" t="str" cm="1">
         <f t="array" ref="G288">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -11635,9 +11352,8 @@
       <c r="E289" t="s">
         <v>11</v>
       </c>
-      <c r="F289" t="str" cm="1">
-        <f t="array" ref="F289">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-10-15 00:00:00</v>
+      <c r="F289" s="1">
+        <v>45580</v>
       </c>
       <c r="G289" t="str" cm="1">
         <f t="array" ref="G289">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -11661,9 +11377,8 @@
       <c r="D290" t="s">
         <v>437</v>
       </c>
-      <c r="F290" t="str" cm="1">
-        <f t="array" ref="F290">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-10-16 00:00:00</v>
+      <c r="F290" s="1">
+        <v>45581</v>
       </c>
       <c r="G290" t="str" cm="1">
         <f t="array" ref="G290">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -11690,9 +11405,8 @@
       <c r="E291" t="s">
         <v>11</v>
       </c>
-      <c r="F291" t="str" cm="1">
-        <f t="array" ref="F291">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-10-17 00:00:00</v>
+      <c r="F291" s="1">
+        <v>45582</v>
       </c>
       <c r="G291" t="str" cm="1">
         <f t="array" ref="G291">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -11716,9 +11430,8 @@
       <c r="D292" t="s">
         <v>440</v>
       </c>
-      <c r="F292" t="str" cm="1">
-        <f t="array" ref="F292">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-10-18 00:00:00</v>
+      <c r="F292" s="1">
+        <v>45583</v>
       </c>
       <c r="G292" t="str" cm="1">
         <f t="array" ref="G292">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -11745,9 +11458,8 @@
       <c r="E293" t="s">
         <v>11</v>
       </c>
-      <c r="F293" t="str" cm="1">
-        <f t="array" ref="F293">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-10-19 00:00:00</v>
+      <c r="F293" s="1">
+        <v>45584</v>
       </c>
       <c r="G293" t="str" cm="1">
         <f t="array" ref="G293">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -11771,9 +11483,8 @@
       <c r="D294" t="s">
         <v>443</v>
       </c>
-      <c r="F294" t="str" cm="1">
-        <f t="array" ref="F294">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-10-20 00:00:00</v>
+      <c r="F294" s="1">
+        <v>45585</v>
       </c>
       <c r="G294" t="str" cm="1">
         <f t="array" ref="G294">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -11800,9 +11511,8 @@
       <c r="E295" t="s">
         <v>11</v>
       </c>
-      <c r="F295" t="str" cm="1">
-        <f t="array" ref="F295">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-10-21 00:00:00</v>
+      <c r="F295" s="1">
+        <v>45586</v>
       </c>
       <c r="G295" t="str" cm="1">
         <f t="array" ref="G295">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -11826,9 +11536,8 @@
       <c r="D296" t="s">
         <v>446</v>
       </c>
-      <c r="F296" t="str" cm="1">
-        <f t="array" ref="F296">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-10-22 00:00:00</v>
+      <c r="F296" s="1">
+        <v>45587</v>
       </c>
       <c r="G296" t="str" cm="1">
         <f t="array" ref="G296">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -11855,9 +11564,8 @@
       <c r="E297" t="s">
         <v>11</v>
       </c>
-      <c r="F297" t="str" cm="1">
-        <f t="array" ref="F297">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-10-23 00:00:00</v>
+      <c r="F297" s="1">
+        <v>45588</v>
       </c>
       <c r="G297" t="str" cm="1">
         <f t="array" ref="G297">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -11881,9 +11589,8 @@
       <c r="D298" t="s">
         <v>449</v>
       </c>
-      <c r="F298" t="str" cm="1">
-        <f t="array" ref="F298">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-10-24 00:00:00</v>
+      <c r="F298" s="1">
+        <v>45589</v>
       </c>
       <c r="G298" t="str" cm="1">
         <f t="array" ref="G298">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -11910,9 +11617,8 @@
       <c r="E299" t="s">
         <v>11</v>
       </c>
-      <c r="F299" t="str" cm="1">
-        <f t="array" ref="F299">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-10-25 00:00:00</v>
+      <c r="F299" s="1">
+        <v>45590</v>
       </c>
       <c r="G299" t="str" cm="1">
         <f t="array" ref="G299">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -11936,9 +11642,8 @@
       <c r="D300" t="s">
         <v>452</v>
       </c>
-      <c r="F300" t="str" cm="1">
-        <f t="array" ref="F300">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-10-26 00:00:00</v>
+      <c r="F300" s="1">
+        <v>45591</v>
       </c>
       <c r="G300" t="str" cm="1">
         <f t="array" ref="G300">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -11965,9 +11670,8 @@
       <c r="E301" t="s">
         <v>11</v>
       </c>
-      <c r="F301" t="str" cm="1">
-        <f t="array" ref="F301">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-10-27 00:00:00</v>
+      <c r="F301" s="1">
+        <v>45592</v>
       </c>
       <c r="G301" t="str" cm="1">
         <f t="array" ref="G301">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -11991,9 +11695,8 @@
       <c r="D302" t="s">
         <v>454</v>
       </c>
-      <c r="F302" t="str" cm="1">
-        <f t="array" ref="F302">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-10-28 00:00:00</v>
+      <c r="F302" s="1">
+        <v>45593</v>
       </c>
       <c r="G302" t="str" cm="1">
         <f t="array" ref="G302">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -12020,9 +11723,8 @@
       <c r="E303" t="s">
         <v>11</v>
       </c>
-      <c r="F303" t="str" cm="1">
-        <f t="array" ref="F303">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-10-29 00:00:00</v>
+      <c r="F303" s="1">
+        <v>45594</v>
       </c>
       <c r="G303" t="str" cm="1">
         <f t="array" ref="G303">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -12046,9 +11748,8 @@
       <c r="D304" t="s">
         <v>457</v>
       </c>
-      <c r="F304" t="str" cm="1">
-        <f t="array" ref="F304">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-10-30 00:00:00</v>
+      <c r="F304" s="1">
+        <v>45595</v>
       </c>
       <c r="G304" t="str" cm="1">
         <f t="array" ref="G304">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -12075,9 +11776,8 @@
       <c r="E305" t="s">
         <v>11</v>
       </c>
-      <c r="F305" t="str" cm="1">
-        <f t="array" ref="F305">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-10-31 00:00:00</v>
+      <c r="F305" s="1">
+        <v>45596</v>
       </c>
       <c r="G305" t="str" cm="1">
         <f t="array" ref="G305">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -12101,9 +11801,8 @@
       <c r="D306" t="s">
         <v>460</v>
       </c>
-      <c r="F306" t="str" cm="1">
-        <f t="array" ref="F306">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-11-01 00:00:00</v>
+      <c r="F306" s="1">
+        <v>45597</v>
       </c>
       <c r="G306" t="str" cm="1">
         <f t="array" ref="G306">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -12130,9 +11829,8 @@
       <c r="E307" t="s">
         <v>11</v>
       </c>
-      <c r="F307" t="str" cm="1">
-        <f t="array" ref="F307">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-11-02 00:00:00</v>
+      <c r="F307" s="1">
+        <v>45598</v>
       </c>
       <c r="G307" t="str" cm="1">
         <f t="array" ref="G307">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -12156,9 +11854,8 @@
       <c r="D308" t="s">
         <v>463</v>
       </c>
-      <c r="F308" t="str" cm="1">
-        <f t="array" ref="F308">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-11-03 00:00:00</v>
+      <c r="F308" s="1">
+        <v>45599</v>
       </c>
       <c r="G308" t="str" cm="1">
         <f t="array" ref="G308">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -12185,9 +11882,8 @@
       <c r="E309" t="s">
         <v>11</v>
       </c>
-      <c r="F309" t="str" cm="1">
-        <f t="array" ref="F309">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-11-04 00:00:00</v>
+      <c r="F309" s="1">
+        <v>45600</v>
       </c>
       <c r="G309" t="str" cm="1">
         <f t="array" ref="G309">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -12211,9 +11907,8 @@
       <c r="D310" t="s">
         <v>466</v>
       </c>
-      <c r="F310" t="str" cm="1">
-        <f t="array" ref="F310">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-11-05 00:00:00</v>
+      <c r="F310" s="1">
+        <v>45601</v>
       </c>
       <c r="G310" t="str" cm="1">
         <f t="array" ref="G310">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -12240,9 +11935,8 @@
       <c r="E311" t="s">
         <v>11</v>
       </c>
-      <c r="F311" t="str" cm="1">
-        <f t="array" ref="F311">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-11-06 00:00:00</v>
+      <c r="F311" s="1">
+        <v>45602</v>
       </c>
       <c r="G311" t="str" cm="1">
         <f t="array" ref="G311">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -12266,9 +11960,8 @@
       <c r="D312" t="s">
         <v>469</v>
       </c>
-      <c r="F312" t="str" cm="1">
-        <f t="array" ref="F312">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-11-07 00:00:00</v>
+      <c r="F312" s="1">
+        <v>45603</v>
       </c>
       <c r="G312" t="str" cm="1">
         <f t="array" ref="G312">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -12295,9 +11988,8 @@
       <c r="E313" t="s">
         <v>11</v>
       </c>
-      <c r="F313" t="str" cm="1">
-        <f t="array" ref="F313">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-11-08 00:00:00</v>
+      <c r="F313" s="1">
+        <v>45604</v>
       </c>
       <c r="G313" t="str" cm="1">
         <f t="array" ref="G313">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -12321,9 +12013,8 @@
       <c r="D314" t="s">
         <v>472</v>
       </c>
-      <c r="F314" t="str" cm="1">
-        <f t="array" ref="F314">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-11-09 00:00:00</v>
+      <c r="F314" s="1">
+        <v>45605</v>
       </c>
       <c r="G314" t="str" cm="1">
         <f t="array" ref="G314">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -12350,9 +12041,8 @@
       <c r="E315" t="s">
         <v>11</v>
       </c>
-      <c r="F315" t="str" cm="1">
-        <f t="array" ref="F315">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-11-10 00:00:00</v>
+      <c r="F315" s="1">
+        <v>45606</v>
       </c>
       <c r="G315" t="str" cm="1">
         <f t="array" ref="G315">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -12376,9 +12066,8 @@
       <c r="D316" t="s">
         <v>475</v>
       </c>
-      <c r="F316" t="str" cm="1">
-        <f t="array" ref="F316">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-11-11 00:00:00</v>
+      <c r="F316" s="1">
+        <v>45607</v>
       </c>
       <c r="G316" t="str" cm="1">
         <f t="array" ref="G316">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -12405,9 +12094,8 @@
       <c r="E317" t="s">
         <v>11</v>
       </c>
-      <c r="F317" t="str" cm="1">
-        <f t="array" ref="F317">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-11-12 00:00:00</v>
+      <c r="F317" s="1">
+        <v>45608</v>
       </c>
       <c r="G317" t="str" cm="1">
         <f t="array" ref="G317">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -12431,9 +12119,8 @@
       <c r="D318" t="s">
         <v>478</v>
       </c>
-      <c r="F318" t="str" cm="1">
-        <f t="array" ref="F318">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-11-13 00:00:00</v>
+      <c r="F318" s="1">
+        <v>45609</v>
       </c>
       <c r="G318" t="str" cm="1">
         <f t="array" ref="G318">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -12460,9 +12147,8 @@
       <c r="E319" t="s">
         <v>11</v>
       </c>
-      <c r="F319" t="str" cm="1">
-        <f t="array" ref="F319">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-11-14 00:00:00</v>
+      <c r="F319" s="1">
+        <v>45610</v>
       </c>
       <c r="G319" t="str" cm="1">
         <f t="array" ref="G319">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -12486,9 +12172,8 @@
       <c r="D320" t="s">
         <v>481</v>
       </c>
-      <c r="F320" t="str" cm="1">
-        <f t="array" ref="F320">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-11-15 00:00:00</v>
+      <c r="F320" s="1">
+        <v>45611</v>
       </c>
       <c r="G320" t="str" cm="1">
         <f t="array" ref="G320">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -12515,9 +12200,8 @@
       <c r="E321" t="s">
         <v>11</v>
       </c>
-      <c r="F321" t="str" cm="1">
-        <f t="array" ref="F321">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-11-16 00:00:00</v>
+      <c r="F321" s="1">
+        <v>45612</v>
       </c>
       <c r="G321" t="str" cm="1">
         <f t="array" ref="G321">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -12541,9 +12225,8 @@
       <c r="D322" t="s">
         <v>484</v>
       </c>
-      <c r="F322" t="str" cm="1">
-        <f t="array" ref="F322">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-11-17 00:00:00</v>
+      <c r="F322" s="1">
+        <v>45613</v>
       </c>
       <c r="G322" t="str" cm="1">
         <f t="array" ref="G322">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -12570,9 +12253,8 @@
       <c r="E323" t="s">
         <v>11</v>
       </c>
-      <c r="F323" t="str" cm="1">
-        <f t="array" ref="F323">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-11-18 00:00:00</v>
+      <c r="F323" s="1">
+        <v>45614</v>
       </c>
       <c r="G323" t="str" cm="1">
         <f t="array" ref="G323">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -12596,9 +12278,8 @@
       <c r="D324" t="s">
         <v>487</v>
       </c>
-      <c r="F324" t="str" cm="1">
-        <f t="array" ref="F324">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-11-19 00:00:00</v>
+      <c r="F324" s="1">
+        <v>45615</v>
       </c>
       <c r="G324" t="str" cm="1">
         <f t="array" ref="G324">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -12625,9 +12306,8 @@
       <c r="E325" t="s">
         <v>11</v>
       </c>
-      <c r="F325" t="str" cm="1">
-        <f t="array" ref="F325">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-11-20 00:00:00</v>
+      <c r="F325" s="1">
+        <v>45616</v>
       </c>
       <c r="G325" t="str" cm="1">
         <f t="array" ref="G325">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -12651,9 +12331,8 @@
       <c r="D326" t="s">
         <v>490</v>
       </c>
-      <c r="F326" t="str" cm="1">
-        <f t="array" ref="F326">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-11-21 00:00:00</v>
+      <c r="F326" s="1">
+        <v>45617</v>
       </c>
       <c r="G326" t="str" cm="1">
         <f t="array" ref="G326">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -12680,9 +12359,8 @@
       <c r="E327" t="s">
         <v>11</v>
       </c>
-      <c r="F327" t="str" cm="1">
-        <f t="array" ref="F327">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-11-22 00:00:00</v>
+      <c r="F327" s="1">
+        <v>45618</v>
       </c>
       <c r="G327" t="str" cm="1">
         <f t="array" ref="G327">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -12706,9 +12384,8 @@
       <c r="D328" t="s">
         <v>493</v>
       </c>
-      <c r="F328" t="str" cm="1">
-        <f t="array" ref="F328">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-11-23 00:00:00</v>
+      <c r="F328" s="1">
+        <v>45619</v>
       </c>
       <c r="G328" t="str" cm="1">
         <f t="array" ref="G328">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -12735,9 +12412,8 @@
       <c r="E329" t="s">
         <v>11</v>
       </c>
-      <c r="F329" t="str" cm="1">
-        <f t="array" ref="F329">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-11-24 00:00:00</v>
+      <c r="F329" s="1">
+        <v>45620</v>
       </c>
       <c r="G329" t="str" cm="1">
         <f t="array" ref="G329">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -12761,9 +12437,8 @@
       <c r="D330" t="s">
         <v>496</v>
       </c>
-      <c r="F330" t="str" cm="1">
-        <f t="array" ref="F330">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-11-25 00:00:00</v>
+      <c r="F330" s="1">
+        <v>45621</v>
       </c>
       <c r="G330" t="str" cm="1">
         <f t="array" ref="G330">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -12790,9 +12465,8 @@
       <c r="E331" t="s">
         <v>11</v>
       </c>
-      <c r="F331" t="str" cm="1">
-        <f t="array" ref="F331">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-11-26 00:00:00</v>
+      <c r="F331" s="1">
+        <v>45622</v>
       </c>
       <c r="G331" t="str" cm="1">
         <f t="array" ref="G331">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -12816,9 +12490,8 @@
       <c r="D332" t="s">
         <v>499</v>
       </c>
-      <c r="F332" t="str" cm="1">
-        <f t="array" ref="F332">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-11-27 00:00:00</v>
+      <c r="F332" s="1">
+        <v>45623</v>
       </c>
       <c r="G332" t="str" cm="1">
         <f t="array" ref="G332">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -12845,9 +12518,8 @@
       <c r="E333" t="s">
         <v>11</v>
       </c>
-      <c r="F333" t="str" cm="1">
-        <f t="array" ref="F333">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-11-28 00:00:00</v>
+      <c r="F333" s="1">
+        <v>45624</v>
       </c>
       <c r="G333" t="str" cm="1">
         <f t="array" ref="G333">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -12871,9 +12543,8 @@
       <c r="D334" t="s">
         <v>502</v>
       </c>
-      <c r="F334" t="str" cm="1">
-        <f t="array" ref="F334">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-11-29 00:00:00</v>
+      <c r="F334" s="1">
+        <v>45625</v>
       </c>
       <c r="G334" t="str" cm="1">
         <f t="array" ref="G334">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -12900,9 +12571,8 @@
       <c r="E335" t="s">
         <v>11</v>
       </c>
-      <c r="F335" t="str" cm="1">
-        <f t="array" ref="F335">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-11-30 00:00:00</v>
+      <c r="F335" s="1">
+        <v>45626</v>
       </c>
       <c r="G335" t="str" cm="1">
         <f t="array" ref="G335">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -12926,9 +12596,8 @@
       <c r="D336" t="s">
         <v>505</v>
       </c>
-      <c r="F336" t="str" cm="1">
-        <f t="array" ref="F336">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-12-01 00:00:00</v>
+      <c r="F336" s="1">
+        <v>45627</v>
       </c>
       <c r="G336" t="str" cm="1">
         <f t="array" ref="G336">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -12955,9 +12624,8 @@
       <c r="E337" t="s">
         <v>11</v>
       </c>
-      <c r="F337" t="str" cm="1">
-        <f t="array" ref="F337">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-12-02 00:00:00</v>
+      <c r="F337" s="1">
+        <v>45628</v>
       </c>
       <c r="G337" t="str" cm="1">
         <f t="array" ref="G337">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -12981,9 +12649,8 @@
       <c r="D338" t="s">
         <v>508</v>
       </c>
-      <c r="F338" t="str" cm="1">
-        <f t="array" ref="F338">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-12-03 00:00:00</v>
+      <c r="F338" s="1">
+        <v>45629</v>
       </c>
       <c r="G338" t="str" cm="1">
         <f t="array" ref="G338">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -13010,9 +12677,8 @@
       <c r="E339" t="s">
         <v>11</v>
       </c>
-      <c r="F339" t="str" cm="1">
-        <f t="array" ref="F339">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-12-04 00:00:00</v>
+      <c r="F339" s="1">
+        <v>45630</v>
       </c>
       <c r="G339" t="str" cm="1">
         <f t="array" ref="G339">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -13036,9 +12702,8 @@
       <c r="D340" t="s">
         <v>511</v>
       </c>
-      <c r="F340" t="str" cm="1">
-        <f t="array" ref="F340">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-12-05 00:00:00</v>
+      <c r="F340" s="1">
+        <v>45631</v>
       </c>
       <c r="G340" t="str" cm="1">
         <f t="array" ref="G340">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -13065,9 +12730,8 @@
       <c r="E341" t="s">
         <v>11</v>
       </c>
-      <c r="F341" t="str" cm="1">
-        <f t="array" ref="F341">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-12-06 00:00:00</v>
+      <c r="F341" s="1">
+        <v>45632</v>
       </c>
       <c r="G341" t="str" cm="1">
         <f t="array" ref="G341">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -13091,9 +12755,8 @@
       <c r="D342" t="s">
         <v>514</v>
       </c>
-      <c r="F342" t="str" cm="1">
-        <f t="array" ref="F342">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-12-07 00:00:00</v>
+      <c r="F342" s="1">
+        <v>45633</v>
       </c>
       <c r="G342" t="str" cm="1">
         <f t="array" ref="G342">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -13120,9 +12783,8 @@
       <c r="E343" t="s">
         <v>11</v>
       </c>
-      <c r="F343" t="str" cm="1">
-        <f t="array" ref="F343">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-12-08 00:00:00</v>
+      <c r="F343" s="1">
+        <v>45634</v>
       </c>
       <c r="G343" t="str" cm="1">
         <f t="array" ref="G343">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -13146,9 +12808,8 @@
       <c r="D344" t="s">
         <v>517</v>
       </c>
-      <c r="F344" t="str" cm="1">
-        <f t="array" ref="F344">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-12-09 00:00:00</v>
+      <c r="F344" s="1">
+        <v>45635</v>
       </c>
       <c r="G344" t="str" cm="1">
         <f t="array" ref="G344">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -13175,9 +12836,8 @@
       <c r="E345" t="s">
         <v>11</v>
       </c>
-      <c r="F345" t="str" cm="1">
-        <f t="array" ref="F345">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-12-10 00:00:00</v>
+      <c r="F345" s="1">
+        <v>45636</v>
       </c>
       <c r="G345" t="str" cm="1">
         <f t="array" ref="G345">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -13201,9 +12861,8 @@
       <c r="D346" t="s">
         <v>520</v>
       </c>
-      <c r="F346" t="str" cm="1">
-        <f t="array" ref="F346">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-12-11 00:00:00</v>
+      <c r="F346" s="1">
+        <v>45637</v>
       </c>
       <c r="G346" t="str" cm="1">
         <f t="array" ref="G346">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -13230,9 +12889,8 @@
       <c r="E347" t="s">
         <v>11</v>
       </c>
-      <c r="F347" t="str" cm="1">
-        <f t="array" ref="F347">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-12-12 00:00:00</v>
+      <c r="F347" s="1">
+        <v>45638</v>
       </c>
       <c r="G347" t="str" cm="1">
         <f t="array" ref="G347">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -13256,9 +12914,8 @@
       <c r="D348" t="s">
         <v>523</v>
       </c>
-      <c r="F348" t="str" cm="1">
-        <f t="array" ref="F348">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-12-13 00:00:00</v>
+      <c r="F348" s="1">
+        <v>45639</v>
       </c>
       <c r="G348" t="str" cm="1">
         <f t="array" ref="G348">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -13285,9 +12942,8 @@
       <c r="E349" t="s">
         <v>11</v>
       </c>
-      <c r="F349" t="str" cm="1">
-        <f t="array" ref="F349">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-12-14 00:00:00</v>
+      <c r="F349" s="1">
+        <v>45640</v>
       </c>
       <c r="G349" t="str" cm="1">
         <f t="array" ref="G349">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -13311,9 +12967,8 @@
       <c r="D350" t="s">
         <v>526</v>
       </c>
-      <c r="F350" t="str" cm="1">
-        <f t="array" ref="F350">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-12-15 00:00:00</v>
+      <c r="F350" s="1">
+        <v>45641</v>
       </c>
       <c r="G350" t="str" cm="1">
         <f t="array" ref="G350">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -13340,9 +12995,8 @@
       <c r="E351" t="s">
         <v>11</v>
       </c>
-      <c r="F351" t="str" cm="1">
-        <f t="array" ref="F351">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-12-16 00:00:00</v>
+      <c r="F351" s="1">
+        <v>45642</v>
       </c>
       <c r="G351" t="str" cm="1">
         <f t="array" ref="G351">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -13366,9 +13020,8 @@
       <c r="D352" t="s">
         <v>529</v>
       </c>
-      <c r="F352" t="str" cm="1">
-        <f t="array" ref="F352">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-12-17 00:00:00</v>
+      <c r="F352" s="1">
+        <v>45643</v>
       </c>
       <c r="G352" t="str" cm="1">
         <f t="array" ref="G352">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -13395,9 +13048,8 @@
       <c r="E353" t="s">
         <v>11</v>
       </c>
-      <c r="F353" t="str" cm="1">
-        <f t="array" ref="F353">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-12-18 00:00:00</v>
+      <c r="F353" s="1">
+        <v>45644</v>
       </c>
       <c r="G353" t="str" cm="1">
         <f t="array" ref="G353">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -13421,9 +13073,8 @@
       <c r="D354" t="s">
         <v>532</v>
       </c>
-      <c r="F354" t="str" cm="1">
-        <f t="array" ref="F354">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-12-19 00:00:00</v>
+      <c r="F354" s="1">
+        <v>45645</v>
       </c>
       <c r="G354" t="str" cm="1">
         <f t="array" ref="G354">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -13450,9 +13101,8 @@
       <c r="E355" t="s">
         <v>11</v>
       </c>
-      <c r="F355" t="str" cm="1">
-        <f t="array" ref="F355">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-12-20 00:00:00</v>
+      <c r="F355" s="1">
+        <v>45646</v>
       </c>
       <c r="G355" t="str" cm="1">
         <f t="array" ref="G355">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -13476,9 +13126,8 @@
       <c r="D356" t="s">
         <v>535</v>
       </c>
-      <c r="F356" t="str" cm="1">
-        <f t="array" ref="F356">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-12-21 00:00:00</v>
+      <c r="F356" s="1">
+        <v>45647</v>
       </c>
       <c r="G356" t="str" cm="1">
         <f t="array" ref="G356">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -13505,9 +13154,8 @@
       <c r="E357" t="s">
         <v>11</v>
       </c>
-      <c r="F357" t="str" cm="1">
-        <f t="array" ref="F357">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-12-22 00:00:00</v>
+      <c r="F357" s="1">
+        <v>45648</v>
       </c>
       <c r="G357" t="str" cm="1">
         <f t="array" ref="G357">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -13531,9 +13179,8 @@
       <c r="D358" t="s">
         <v>538</v>
       </c>
-      <c r="F358" t="str" cm="1">
-        <f t="array" ref="F358">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-12-23 00:00:00</v>
+      <c r="F358" s="1">
+        <v>45649</v>
       </c>
       <c r="G358" t="str" cm="1">
         <f t="array" ref="G358">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -13560,9 +13207,8 @@
       <c r="E359" t="s">
         <v>11</v>
       </c>
-      <c r="F359" t="str" cm="1">
-        <f t="array" ref="F359">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-12-24 00:00:00</v>
+      <c r="F359" s="1">
+        <v>45650</v>
       </c>
       <c r="G359" t="str" cm="1">
         <f t="array" ref="G359">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -13586,9 +13232,8 @@
       <c r="D360" t="s">
         <v>541</v>
       </c>
-      <c r="F360" t="str" cm="1">
-        <f t="array" ref="F360">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-12-25 00:00:00</v>
+      <c r="F360" s="1">
+        <v>45651</v>
       </c>
       <c r="G360" t="str" cm="1">
         <f t="array" ref="G360">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -13615,9 +13260,8 @@
       <c r="E361" t="s">
         <v>11</v>
       </c>
-      <c r="F361" t="str" cm="1">
-        <f t="array" ref="F361">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-12-26 00:00:00</v>
+      <c r="F361" s="1">
+        <v>45652</v>
       </c>
       <c r="G361" t="str" cm="1">
         <f t="array" ref="G361">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -13641,9 +13285,8 @@
       <c r="D362" t="s">
         <v>544</v>
       </c>
-      <c r="F362" t="str" cm="1">
-        <f t="array" ref="F362">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-12-27 00:00:00</v>
+      <c r="F362" s="1">
+        <v>45653</v>
       </c>
       <c r="G362" t="str" cm="1">
         <f t="array" ref="G362">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -13670,9 +13313,8 @@
       <c r="E363" t="s">
         <v>11</v>
       </c>
-      <c r="F363" t="str" cm="1">
-        <f t="array" ref="F363">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-12-28 00:00:00</v>
+      <c r="F363" s="1">
+        <v>45654</v>
       </c>
       <c r="G363" t="str" cm="1">
         <f t="array" ref="G363">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -13696,9 +13338,8 @@
       <c r="D364" t="s">
         <v>532</v>
       </c>
-      <c r="F364" t="str" cm="1">
-        <f t="array" ref="F364">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-12-29 00:00:00</v>
+      <c r="F364" s="1">
+        <v>45655</v>
       </c>
       <c r="G364" t="str" cm="1">
         <f t="array" ref="G364">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -13725,9 +13366,8 @@
       <c r="E365" t="s">
         <v>11</v>
       </c>
-      <c r="F365" t="str" cm="1">
-        <f t="array" ref="F365">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-12-30 00:00:00</v>
+      <c r="F365" s="1">
+        <v>45656</v>
       </c>
       <c r="G365" t="str" cm="1">
         <f t="array" ref="G365">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -13751,9 +13391,8 @@
       <c r="D366" t="s">
         <v>549</v>
       </c>
-      <c r="F366" t="str" cm="1">
-        <f t="array" ref="F366">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-12-31 00:00:00</v>
+      <c r="F366" s="1">
+        <v>45657</v>
       </c>
       <c r="G366" t="str" cm="1">
         <f t="array" ref="G366">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -13780,9 +13419,8 @@
       <c r="E367" t="s">
         <v>11</v>
       </c>
-      <c r="F367" t="str" cm="1">
-        <f t="array" ref="F367">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2025-01-01 00:00:00</v>
+      <c r="F367" s="1">
+        <v>45658</v>
       </c>
       <c r="G367" t="str" cm="1">
         <f t="array" ref="G367">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -13806,8 +13444,9 @@
       <c r="D368" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F368" s="1"/>
+    </row>
+    <row r="369" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>9</v>
       </c>
@@ -13823,8 +13462,9 @@
       <c r="E369" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F369" s="1"/>
+    </row>
+    <row r="370" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>5</v>
       </c>
@@ -13837,8 +13477,9 @@
       <c r="D370" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F370" s="1"/>
+    </row>
+    <row r="371" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>9</v>
       </c>
@@ -13854,8 +13495,9 @@
       <c r="E371" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F371" s="1"/>
+    </row>
+    <row r="372" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>5</v>
       </c>
@@ -13868,8 +13510,9 @@
       <c r="D372" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F372" s="1"/>
+    </row>
+    <row r="373" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>9</v>
       </c>
@@ -13886,7 +13529,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>5</v>
       </c>
@@ -13900,7 +13543,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>9</v>
       </c>
@@ -13917,7 +13560,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>5</v>
       </c>
@@ -13931,7 +13574,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>9</v>
       </c>
@@ -13948,7 +13591,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>5</v>
       </c>
@@ -13962,7 +13605,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>9</v>
       </c>
@@ -13979,7 +13622,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>5</v>
       </c>
@@ -13993,7 +13636,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>9</v>
       </c>
@@ -14010,7 +13653,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>5</v>
       </c>
@@ -14024,7 +13667,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>9</v>
       </c>
@@ -14041,7 +13684,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>5</v>
       </c>

--- a/CascadillaHall.xlsx
+++ b/CascadillaHall.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewburgos/Desktop/BEE 4750/BEE4750FinalProject-1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B292C19E-7026-2941-A79B-C6B5FBF59975}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9E1F5E8-4E95-E945-A9FB-430328CFE839}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3302" uniqueCount="1086">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3321" uniqueCount="1105">
   <si>
     <t>name</t>
   </si>
@@ -3313,6 +3313,63 @@
   </si>
   <si>
     <t>Steam (lbs/hr)</t>
+  </si>
+  <si>
+    <t>576.595218750</t>
+  </si>
+  <si>
+    <t>233.580722708</t>
+  </si>
+  <si>
+    <t>298.450173229</t>
+  </si>
+  <si>
+    <t>374.404379166</t>
+  </si>
+  <si>
+    <t>433.333753125</t>
+  </si>
+  <si>
+    <t>535.526193750</t>
+  </si>
+  <si>
+    <t>629.583861458</t>
+  </si>
+  <si>
+    <t>653.055984375</t>
+  </si>
+  <si>
+    <t>593.690185416</t>
+  </si>
+  <si>
+    <t>531.446019791</t>
+  </si>
+  <si>
+    <t>534.671562500</t>
+  </si>
+  <si>
+    <t>469.130858333</t>
+  </si>
+  <si>
+    <t>397.916613854</t>
+  </si>
+  <si>
+    <t>368.838991666</t>
+  </si>
+  <si>
+    <t>565.945376041</t>
+  </si>
+  <si>
+    <t>503.084210416</t>
+  </si>
+  <si>
+    <t>370.893908541</t>
+  </si>
+  <si>
+    <t>130.958040104</t>
+  </si>
+  <si>
+    <t>397.825952083</t>
   </si>
 </sst>
 </file>
@@ -3331,12 +3388,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -3351,9 +3414,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3695,8 +3759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H733"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A209" workbookViewId="0">
-      <selection activeCell="I201" sqref="I201"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I195" sqref="I195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8840,9 +8904,8 @@
         <f t="array" ref="G194">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
         <v>24.553125000</v>
       </c>
-      <c r="H194" t="str" cm="1">
-        <f t="array" ref="H194">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
-        <v>0.000000000</v>
+      <c r="H194" s="2" t="s">
+        <v>1086</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.2">
@@ -8868,9 +8931,8 @@
         <f t="array" ref="G195">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
         <v>22.503125000</v>
       </c>
-      <c r="H195" t="str" cm="1">
-        <f t="array" ref="H195">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
-        <v>0.000000000</v>
+      <c r="H195" s="2" t="s">
+        <v>1087</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.2">
@@ -8893,9 +8955,8 @@
         <f t="array" ref="G196">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
         <v>21.902083333</v>
       </c>
-      <c r="H196" t="str" cm="1">
-        <f t="array" ref="H196">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
-        <v>1.366015208</v>
+      <c r="H196" s="2" t="s">
+        <v>1088</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.2">
@@ -8921,9 +8982,8 @@
         <f t="array" ref="G197">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
         <v>23.668750000</v>
       </c>
-      <c r="H197" t="str" cm="1">
-        <f t="array" ref="H197">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
-        <v>0.005079166</v>
+      <c r="H197" s="2" t="s">
+        <v>1089</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.2">
@@ -8946,9 +9006,8 @@
         <f t="array" ref="G198">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
         <v>23.479166666</v>
       </c>
-      <c r="H198" t="str" cm="1">
-        <f t="array" ref="H198">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
-        <v>0.000000000</v>
+      <c r="H198" s="2" t="s">
+        <v>1090</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.2">
@@ -8974,9 +9033,8 @@
         <f t="array" ref="G199">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
         <v>23.244791666</v>
       </c>
-      <c r="H199" t="str" cm="1">
-        <f t="array" ref="H199">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
-        <v>0.000000000</v>
+      <c r="H199" s="2" t="s">
+        <v>1091</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.2">
@@ -8999,9 +9057,8 @@
         <f t="array" ref="G200">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
         <v>22.645833333</v>
       </c>
-      <c r="H200" t="str" cm="1">
-        <f t="array" ref="H200">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
-        <v>0.000000000</v>
+      <c r="H200" s="2" t="s">
+        <v>1092</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.2">
@@ -9027,9 +9084,8 @@
         <f t="array" ref="G201">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
         <v>23.915625000</v>
       </c>
-      <c r="H201" t="str" cm="1">
-        <f t="array" ref="H201">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
-        <v>0.000000000</v>
+      <c r="H201" s="2" t="s">
+        <v>1093</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.2">
@@ -9052,9 +9108,8 @@
         <f t="array" ref="G202">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
         <v>21.744791666</v>
       </c>
-      <c r="H202" t="str" cm="1">
-        <f t="array" ref="H202">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
-        <v>0.000000000</v>
+      <c r="H202" s="2" t="s">
+        <v>1094</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.2">
@@ -9080,9 +9135,8 @@
         <f t="array" ref="G203">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
         <v>22.243750000</v>
       </c>
-      <c r="H203" t="str" cm="1">
-        <f t="array" ref="H203">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
-        <v>0.000000000</v>
+      <c r="H203" s="2" t="s">
+        <v>1095</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.2">
@@ -9105,9 +9159,8 @@
         <f t="array" ref="G204">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
         <v>23.997916666</v>
       </c>
-      <c r="H204" t="str" cm="1">
-        <f t="array" ref="H204">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
-        <v>0.000000000</v>
+      <c r="H204" s="2" t="s">
+        <v>1096</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.2">
@@ -9133,9 +9186,8 @@
         <f t="array" ref="G205">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
         <v>23.398958333</v>
       </c>
-      <c r="H205" t="str" cm="1">
-        <f t="array" ref="H205">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
-        <v>0.000000000</v>
+      <c r="H205" s="2" t="s">
+        <v>1097</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.2">
@@ -9158,9 +9210,8 @@
         <f t="array" ref="G206">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
         <v>23.979166666</v>
       </c>
-      <c r="H206" t="str" cm="1">
-        <f t="array" ref="H206">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
-        <v>0.007521666</v>
+      <c r="H206" s="2" t="s">
+        <v>1098</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.2">
@@ -9186,9 +9237,8 @@
         <f t="array" ref="G207">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
         <v>24.604166666</v>
       </c>
-      <c r="H207" t="str" cm="1">
-        <f t="array" ref="H207">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
-        <v>0.000000000</v>
+      <c r="H207" s="2" t="s">
+        <v>1099</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.2">
@@ -9211,9 +9261,8 @@
         <f t="array" ref="G208">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
         <v>24.535416666</v>
       </c>
-      <c r="H208" t="str" cm="1">
-        <f t="array" ref="H208">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
-        <v>0.000000000</v>
+      <c r="H208" s="2" t="s">
+        <v>1100</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.2">
@@ -9239,9 +9288,8 @@
         <f t="array" ref="G209">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
         <v>23.671875000</v>
       </c>
-      <c r="H209" t="str" cm="1">
-        <f t="array" ref="H209">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
-        <v>0.000000000</v>
+      <c r="H209" s="2" t="s">
+        <v>1101</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.2">
@@ -9264,9 +9312,8 @@
         <f t="array" ref="G210">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
         <v>22.831250000</v>
       </c>
-      <c r="H210" t="str" cm="1">
-        <f t="array" ref="H210">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
-        <v>0.000000000</v>
+      <c r="H210" s="2" t="s">
+        <v>1102</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.2">
@@ -9292,9 +9339,8 @@
         <f t="array" ref="G211">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
         <v>25.537500000</v>
       </c>
-      <c r="H211" t="str" cm="1">
-        <f t="array" ref="H211">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
-        <v>0.000000000</v>
+      <c r="H211" s="2" t="s">
+        <v>1103</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.2">
@@ -9317,9 +9363,8 @@
         <f t="array" ref="G212">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
         <v>23.423958333</v>
       </c>
-      <c r="H212" t="str" cm="1">
-        <f t="array" ref="H212">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
-        <v>2.417885416</v>
+      <c r="H212" s="2" t="s">
+        <v>1104</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.2">
